--- a/projects/template_lhs_discrete_continuous.xlsx
+++ b/projects/template_lhs_discrete_continuous.xlsx
@@ -2011,13 +2011,13 @@
     <t>Total Site Energy</t>
   </si>
   <si>
-    <t>1.5.4</t>
-  </si>
-  <si>
     <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/rsrc/amis_v2.json</t>
   </si>
   <si>
     <t xml:space="preserve"> - Worker Only - </t>
+  </si>
+  <si>
+    <t>1.5.6</t>
   </si>
 </sst>
 </file>
@@ -5453,7 +5453,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5511,10 +5511,10 @@
         <v>482</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="46" customHeight="1">
@@ -16462,7 +16462,7 @@
         <v>621</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="33" customFormat="1">
@@ -16476,7 +16476,7 @@
         <v>623</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="33" customFormat="1">

--- a/projects/template_lhs_discrete_continuous.xlsx
+++ b/projects/template_lhs_discrete_continuous.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27640" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="669">
   <si>
     <t>type</t>
   </si>
@@ -1687,9 +1687,6 @@
     <t>Set Hot Water Loop Temperature</t>
   </si>
   <si>
-    <t>Total Electricity</t>
-  </si>
-  <si>
     <t>epsilonGradient</t>
   </si>
   <si>
@@ -1846,9 +1843,6 @@
     <t>positive integer (if individual, total simulations is this times each variable)</t>
   </si>
   <si>
-    <t>Total Natural Gas</t>
-  </si>
-  <si>
     <t>m3.large</t>
   </si>
   <si>
@@ -1966,12 +1960,6 @@
     <t>discrete_uncertain</t>
   </si>
   <si>
-    <t>Total Source Energy</t>
-  </si>
-  <si>
-    <t>Total Site Energy</t>
-  </si>
-  <si>
     <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/rsrc/amis_v2.json</t>
   </si>
   <si>
@@ -2027,6 +2015,39 @@
   </si>
   <si>
     <t>standard_report_legacy.total_source_energy</t>
+  </si>
+  <si>
+    <t>Taxonomy Identifier</t>
+  </si>
+  <si>
+    <t>Machine Name thats Link to Dencity Taxonomy</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Total Site Energy Intensity</t>
+  </si>
+  <si>
+    <t>total_site_energy_intensity</t>
+  </si>
+  <si>
+    <t>Total Source Energy Intensity</t>
+  </si>
+  <si>
+    <t>total_source_energy_intensity</t>
+  </si>
+  <si>
+    <t>Total Natural Gas Intensity</t>
+  </si>
+  <si>
+    <t>total_natural_gas_intensity</t>
+  </si>
+  <si>
+    <t>Total Electricity Intensity</t>
+  </si>
+  <si>
+    <t>total_electricity_intensity</t>
   </si>
 </sst>
 </file>
@@ -5585,8 +5606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5622,7 +5643,7 @@
         <v>441</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>442</v>
@@ -5644,10 +5665,10 @@
         <v>477</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="46" customHeight="1">
@@ -5655,7 +5676,7 @@
         <v>478</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>480</v>
@@ -5666,7 +5687,7 @@
         <v>447</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
@@ -5677,7 +5698,7 @@
         <v>$0.14/hour</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28">
@@ -5709,7 +5730,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="37"/>
       <c r="E9" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1">
@@ -5726,7 +5747,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>479</v>
@@ -5770,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5789,7 +5810,7 @@
         <v>474</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>442</v>
@@ -5800,7 +5821,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -5825,13 +5846,13 @@
         <v>456</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>463</v>
@@ -5861,14 +5882,14 @@
       </c>
       <c r="B25" s="29">
         <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1))=0,"",INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)-1)))</f>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C25" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))=0,"",INDEX(Lookups!$C$17:$Z$26,2,3*MATCH(Setup!$B21,Lookups!$A$17:$A$23,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D25" s="40">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6029,7 +6050,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
@@ -6054,13 +6075,13 @@
         <v>34</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>44</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>455</v>
@@ -6074,11 +6095,11 @@
         <v>36</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -6114,7 +6135,7 @@
   <dimension ref="A1:Y91"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6184,10 +6205,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -6233,7 +6254,7 @@
         <v>9</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O3" s="16" t="s">
         <v>484</v>
@@ -6364,7 +6385,7 @@
         <v>68</v>
       </c>
       <c r="H8" s="34">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="3">
@@ -6587,7 +6608,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>79</v>
@@ -6596,7 +6617,7 @@
         <v>68</v>
       </c>
       <c r="H17" s="34">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="34">
@@ -6656,7 +6677,7 @@
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>263</v>
@@ -6686,7 +6707,7 @@
       <c r="O19" s="33"/>
       <c r="P19" s="33"/>
       <c r="Q19" s="33" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="15">
@@ -6813,7 +6834,7 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>263</v>
@@ -6823,7 +6844,7 @@
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="33">
@@ -6838,13 +6859,13 @@
       <c r="M24" s="33"/>
       <c r="N24" s="33"/>
       <c r="O24" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="P24" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="P24" s="33" t="s">
+      <c r="Q24" s="33" t="s">
         <v>638</v>
-      </c>
-      <c r="Q24" s="33" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="15">
@@ -7017,7 +7038,7 @@
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I31" s="17" t="s">
         <v>88</v>
@@ -7975,18 +7996,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.5" style="34" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
@@ -7995,65 +8015,69 @@
     <col min="10" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
+    <row r="1" spans="1:12" s="34" customFormat="1" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="5"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="15">
-      <c r="A2" s="8" t="s">
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" ht="45">
+      <c r="A2" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="I2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="45">
+      <c r="A3" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="B3" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="14" customFormat="1" ht="30">
-      <c r="A3" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>469</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>469</v>
@@ -8062,139 +8086,160 @@
         <v>469</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="34" customFormat="1">
+        <v>469</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="34" customFormat="1">
       <c r="A4" s="33" t="s">
-        <v>601</v>
+        <v>661</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="33" t="b">
+      <c r="F4" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="33" t="b">
-        <v>0</v>
-      </c>
       <c r="G4" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="33" t="b">
+        <v>0</v>
+      </c>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="1:10" s="34" customFormat="1">
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" s="34" customFormat="1">
       <c r="A5" s="33" t="s">
-        <v>548</v>
+        <v>663</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="E5" s="33" t="s">
         <v>68</v>
-      </c>
-      <c r="E5" s="33" t="b">
-        <v>1</v>
       </c>
       <c r="F5" s="33" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="33" t="b">
+        <v>0</v>
+      </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>642</v>
-      </c>
-      <c r="B6" t="s">
-        <v>660</v>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" spans="1:12" s="34" customFormat="1">
+      <c r="A6" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>666</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="E6" s="33" t="s">
         <v>68</v>
-      </c>
-      <c r="E6" s="33" t="b">
-        <v>1</v>
       </c>
       <c r="F6" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>641</v>
+      <c r="H6" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="1:12" s="34" customFormat="1">
+      <c r="A7" s="33" t="s">
+        <v>667</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="E7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="33" t="b">
+      <c r="F7" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="b">
+      <c r="G7" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="H7" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12">
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12">
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" customFormat="1">
+    <row r="15" spans="1:12" customFormat="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -8205,7 +8250,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" customFormat="1">
+    <row r="16" spans="1:12" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -16502,72 +16547,72 @@
     </row>
     <row r="2" spans="1:21" s="33" customFormat="1">
       <c r="A2" s="33" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>450</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="33" customFormat="1">
       <c r="A3" s="33" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>451</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="33" customFormat="1">
       <c r="A4" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>452</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="33" customFormat="1">
       <c r="A5" s="33" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>450</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="33" customFormat="1">
       <c r="A6" s="33" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>451</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="33" customFormat="1">
@@ -16578,52 +16623,52 @@
         <v>452</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="33" customFormat="1">
       <c r="A8" s="33" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>452</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="33" customFormat="1">
       <c r="A9" s="33" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>453</v>
       </c>
       <c r="C9" s="33" t="s">
+        <v>615</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>617</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="E11" t="s">
         <v>565</v>
       </c>
-      <c r="E11" t="s">
-        <v>566</v>
-      </c>
       <c r="G11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -16634,7 +16679,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G12" t="s">
         <v>473</v>
@@ -16648,66 +16693,66 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="33" customFormat="1"/>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
+        <v>558</v>
+      </c>
+      <c r="C16" t="s">
         <v>559</v>
-      </c>
-      <c r="C16" t="s">
-        <v>560</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R16" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="U16" s="33" t="s">
         <v>563</v>
-      </c>
-      <c r="U16" s="33" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G17" t="s">
         <v>462</v>
       </c>
       <c r="H17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J17" s="32">
         <v>0.01</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M17">
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -16716,7 +16761,7 @@
         <v>30</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -16730,229 +16775,229 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J18" s="32">
         <v>0.01</v>
       </c>
       <c r="K18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P18">
         <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J19" s="32">
         <v>45036000000000</v>
       </c>
       <c r="K19" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P19">
         <v>0.85</v>
       </c>
       <c r="Q19" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L20" t="s">
+        <v>591</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
         <v>592</v>
       </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>593</v>
-      </c>
       <c r="O20" s="34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="J21" s="34" t="s">
         <v>550</v>
       </c>
-      <c r="J21" s="34" t="s">
-        <v>551</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M21" s="32">
         <v>0.01</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J22" s="34">
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M22" s="32">
         <v>0.01</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P22">
         <v>0.8</v>
       </c>
       <c r="Q22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M23" s="32">
         <v>0.01</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O23" s="34" t="s">
+        <v>549</v>
+      </c>
+      <c r="P23" s="34" t="s">
         <v>550</v>
-      </c>
-      <c r="P23" s="34" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="L24" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M24" s="32">
         <v>45036000000000</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O24" s="34" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P24" s="34">
         <v>2</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M25" s="33">
         <v>100</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="M26" s="34" t="s">
         <v>550</v>
-      </c>
-      <c r="M26" s="34" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M27" s="34">
         <v>2</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/projects/template_lhs_discrete_continuous.xlsx
+++ b/projects/template_lhs_discrete_continuous.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="27640" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -1986,9 +1986,6 @@
     <t>standard_report_legacy.total_electricity</t>
   </si>
   <si>
-    <t>0.3.3</t>
-  </si>
-  <si>
     <t>Parameter Short Display Name</t>
   </si>
   <si>
@@ -2263,6 +2260,9 @@
   </si>
   <si>
     <t>South Projection Factor</t>
+  </si>
+  <si>
+    <t>0.3.5</t>
   </si>
 </sst>
 </file>
@@ -5791,8 +5791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5830,7 +5830,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>648</v>
+        <v>740</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5852,7 +5852,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5874,7 +5874,7 @@
         <v>442</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
@@ -5949,7 +5949,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>473</v>
@@ -5960,7 +5960,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>619</v>
@@ -6264,7 +6264,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6290,13 +6290,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>450</v>
@@ -6351,7 +6351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -6468,7 +6470,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>11</v>
@@ -6614,7 +6616,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -6966,7 +6968,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7052,7 +7054,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7082,7 +7084,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7252,7 +7254,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7275,16 +7277,18 @@
       <c r="M22" s="46">
         <v>50</v>
       </c>
-      <c r="N22" s="42"/>
+      <c r="N22" s="42">
+        <v>10</v>
+      </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q22" s="42" t="s">
         <v>738</v>
       </c>
-      <c r="Q22" s="42" t="s">
-        <v>739</v>
-      </c>
       <c r="R22" s="42" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="S22" s="42"/>
       <c r="T22" s="42"/>
@@ -7454,7 +7458,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7618,7 +7622,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7715,7 +7719,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -7782,13 +7786,13 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>64</v>
@@ -7922,7 +7926,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -9719,7 +9723,7 @@
         <v>461</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>622</v>
@@ -9758,7 +9762,7 @@
         <v>629</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>630</v>
@@ -9797,7 +9801,7 @@
         <v>636</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>637</v>
@@ -9830,7 +9834,7 @@
         <v>639</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>640</v>
@@ -9863,7 +9867,7 @@
         <v>642</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>643</v>
@@ -9896,7 +9900,7 @@
         <v>645</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>646</v>
@@ -9926,15 +9930,15 @@
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -9955,15 +9959,15 @@
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
@@ -9984,15 +9988,15 @@
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>64</v>
@@ -10013,15 +10017,15 @@
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>64</v>
@@ -10042,12 +10046,12 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10071,12 +10075,12 @@
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10100,12 +10104,12 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10129,12 +10133,12 @@
     </row>
     <row r="15" spans="1:13" s="23" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10158,12 +10162,12 @@
     </row>
     <row r="16" spans="1:13" s="23" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10187,12 +10191,12 @@
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10216,12 +10220,12 @@
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10245,12 +10249,12 @@
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10274,12 +10278,12 @@
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10303,12 +10307,12 @@
     </row>
     <row r="21" spans="1:13" s="22" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10332,12 +10336,12 @@
     </row>
     <row r="22" spans="1:13" s="22" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10361,12 +10365,12 @@
     </row>
     <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10390,12 +10394,12 @@
     </row>
     <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>470</v>
@@ -10419,12 +10423,12 @@
     </row>
     <row r="25" spans="1:13" s="23" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>470</v>
@@ -10448,15 +10452,15 @@
     </row>
     <row r="26" spans="1:13" s="23" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>713</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>714</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>64</v>
@@ -18943,7 +18947,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -18951,19 +18955,19 @@
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1">
       <c r="A2" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>652</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22" t="s">
         <v>653</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>655</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="22" customFormat="1">
@@ -18977,10 +18981,10 @@
         <v>594</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="22" customFormat="1">
@@ -18994,10 +18998,10 @@
         <v>596</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1">
@@ -19011,44 +19015,44 @@
         <v>598</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="22" customFormat="1">
       <c r="A6" s="22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>660</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>661</v>
-      </c>
       <c r="E6" s="22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
       <c r="A7" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>664</v>
-      </c>
       <c r="E7" s="22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
@@ -19062,10 +19066,10 @@
         <v>600</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19079,10 +19083,10 @@
         <v>602</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19096,10 +19100,10 @@
         <v>603</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
@@ -19113,10 +19117,10 @@
         <v>605</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
@@ -19124,16 +19128,16 @@
         <v>606</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>607</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1"/>

--- a/projects/template_lhs_discrete_continuous.xlsx
+++ b/projects/template_lhs_discrete_continuous.xlsx
@@ -2214,9 +2214,6 @@
     <t>discrete_uncertain</t>
   </si>
   <si>
-    <t>1.8.0-pre12</t>
-  </si>
-  <si>
     <t>South WWR</t>
   </si>
   <si>
@@ -2263,6 +2260,9 @@
   </si>
   <si>
     <t>0.3.5</t>
+  </si>
+  <si>
+    <t>1.8.0-rc2</t>
   </si>
 </sst>
 </file>
@@ -2424,8 +2424,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1481">
+  <cellStyleXfs count="1485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4009,7 +4013,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1481">
+  <cellStyles count="1485">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4750,6 +4754,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1476" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1478" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1484" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5490,6 +5496,8 @@
     <cellStyle name="Hyperlink" xfId="1475" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1477" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5792,7 +5800,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5830,7 +5838,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5852,7 +5860,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5897,7 +5905,7 @@
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
@@ -5905,11 +5913,11 @@
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>32 Cores with 320 GB</v>
+        <v>16 Cores with 160 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$1.68/hour</v>
+        <v>$0.84/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
@@ -5928,7 +5936,7 @@
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$2.17/hour</v>
+        <v>$1.33/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>609</v>
@@ -5949,7 +5957,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>473</v>
@@ -5960,7 +5968,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>619</v>
@@ -6264,7 +6272,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6290,13 +6298,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>450</v>
@@ -6616,7 +6624,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -6968,7 +6976,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7054,7 +7062,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7084,7 +7092,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7254,7 +7262,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7282,10 +7290,10 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q22" s="42" t="s">
         <v>737</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>738</v>
       </c>
       <c r="R22" s="42" t="s">
         <v>723</v>
@@ -7458,7 +7466,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7622,7 +7630,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7786,7 +7794,7 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>
@@ -18923,7 +18931,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/projects/template_lhs_discrete_continuous.xlsx
+++ b/projects/template_lhs_discrete_continuous.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="27640" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="743">
   <si>
     <t>type</t>
   </si>
@@ -2016,24 +2016,6 @@
     <t>80 GB</t>
   </si>
   <si>
-    <t>m2.2xlarge</t>
-  </si>
-  <si>
-    <t>$0.49/hour</t>
-  </si>
-  <si>
-    <t>850 GB</t>
-  </si>
-  <si>
-    <t>m2.4xlarge</t>
-  </si>
-  <si>
-    <t>$0.98/hour</t>
-  </si>
-  <si>
-    <t>840 GB</t>
-  </si>
-  <si>
     <t>16 GB</t>
   </si>
   <si>
@@ -2055,12 +2037,6 @@
     <t>Recommended for Server if large analysis because of storage</t>
   </si>
   <si>
-    <t>Worker Only</t>
-  </si>
-  <si>
-    <t>Worker Only - Recommended for Worker</t>
-  </si>
-  <si>
     <t>Storage</t>
   </si>
   <si>
@@ -2259,10 +2235,40 @@
     <t>South Projection Factor</t>
   </si>
   <si>
-    <t>0.3.5</t>
-  </si>
-  <si>
-    <t>1.8.0-rc2</t>
+    <t>1.8.0</t>
+  </si>
+  <si>
+    <t>AWS Tag</t>
+  </si>
+  <si>
+    <t>org=5500</t>
+  </si>
+  <si>
+    <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
+  </si>
+  <si>
+    <t>0.3.6</t>
+  </si>
+  <si>
+    <t>Recommended for worker</t>
+  </si>
+  <si>
+    <t>Can be used as worker</t>
+  </si>
+  <si>
+    <t>i2.2xlarge</t>
+  </si>
+  <si>
+    <t>i2.xlarge</t>
+  </si>
+  <si>
+    <t>$0.85/hour</t>
+  </si>
+  <si>
+    <t>800 GB</t>
+  </si>
+  <si>
+    <t>$1.71/hour</t>
   </si>
 </sst>
 </file>
@@ -2424,8 +2430,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1485">
+  <cellStyleXfs count="1515">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4013,7 +4049,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1485">
+  <cellStyles count="1515">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4756,6 +4792,21 @@
     <cellStyle name="Followed Hyperlink" xfId="1480" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1482" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1514" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5498,6 +5549,21 @@
     <cellStyle name="Hyperlink" xfId="1479" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1481" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1513" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5797,10 +5863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5838,7 +5904,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5860,7 +5926,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5877,24 +5943,24 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>658</v>
+        <v>595</v>
       </c>
       <c r="C7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,5,FALSE)</f>
-        <v>Recommended for Server if large analysis because of storage</v>
+        <v>Recommended for Server</v>
       </c>
       <c r="D7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
-        <v>4 Cores with 850 GB</v>
+        <v>4 Cores with 40 GB</v>
       </c>
       <c r="E7" s="24" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
-        <v>$0.49/hour</v>
+        <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>610</v>
@@ -5905,19 +5971,19 @@
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>604</v>
+        <v>440</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
-        <v>Worker Only - Recommended for Worker</v>
+        <v>Recommended for worker</v>
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>16 Cores with 160 GB</v>
+        <v>8 Cores with 80 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.84/hour</v>
+        <v>$0.42/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
@@ -5932,54 +5998,57 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$1.33/hour</v>
+        <v>$0.7/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1">
-      <c r="A11" s="6" t="s">
+    <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
+      <c r="A10" s="23" t="s">
+        <v>732</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>473</v>
-      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>727</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>619</v>
+        <v>718</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>452</v>
+        <v>719</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>619</v>
@@ -5987,358 +6056,369 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B15" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>437</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B16" s="16" t="b">
+        <v>464</v>
+      </c>
+      <c r="B16" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>611</v>
+      <c r="F16" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>437</v>
+        <v>465</v>
+      </c>
+      <c r="B17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>547</v>
+        <v>467</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="42">
-      <c r="A20" s="6" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B21" s="19" t="s">
         <v>612</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="23" customFormat="1">
-      <c r="B22" s="18"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="42">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:6" s="23" customFormat="1">
+      <c r="B23" s="18"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A24" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B24" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="8" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+    <row r="25" spans="1:6">
+      <c r="A25" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Sample Method</v>
       </c>
-      <c r="B24" s="18" t="str">
-        <f>IF(D24&lt;&gt;"",D24,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+      <c r="B25" s="18" t="str">
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v>all_variables</v>
       </c>
-      <c r="C24" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+      <c r="C25" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v>individual_variables / all_variables</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D25" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="E24" s="23"/>
-    </row>
-    <row r="25" spans="1:6" ht="28">
-      <c r="A25" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" ht="28">
+      <c r="A26" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Number of Samples</v>
       </c>
-      <c r="B25" s="18">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+      <c r="B26" s="18">
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v>30</v>
       </c>
-      <c r="C25" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+      <c r="C26" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D26" s="27">
         <v>30</v>
       </c>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
-      <c r="B26" s="18" t="str">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+      <c r="B27" s="18" t="str">
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
-      <c r="C26" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+      <c r="C27" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:6" s="23" customFormat="1">
-      <c r="A27" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B27" s="18" t="str">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v/>
-      </c>
-      <c r="C27" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
-        <v/>
-      </c>
       <c r="D27" s="27"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1">
       <c r="A28" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B28" s="18" t="str">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C28" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:6" s="23" customFormat="1">
       <c r="A29" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B29" s="18" t="str">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C29" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:6" s="23" customFormat="1">
       <c r="A30" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B30" s="18" t="str">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C30" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:6" s="23" customFormat="1">
       <c r="A31" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B31" s="18" t="str">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C31" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:6" s="23" customFormat="1">
       <c r="A32" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B32" s="18" t="str">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C32" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" s="23" customFormat="1">
       <c r="A33" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B33" s="18" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C33" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:6" s="23" customFormat="1">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
       </c>
       <c r="B34" s="18" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
         <v/>
       </c>
       <c r="C34" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B21,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v/>
       </c>
       <c r="D34" s="27"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="1:6" s="23" customFormat="1">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="28">
-      <c r="A36" s="6" t="s">
+      <c r="A35" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B35" s="18" t="str">
+        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C35" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <v/>
+      </c>
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="1:6" s="23" customFormat="1">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
+      <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B37" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="28">
-      <c r="A39" s="6" t="s">
+      <c r="B38" s="26" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
+      <c r="A40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B40" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="8" t="s">
+      <c r="E40" s="6"/>
+      <c r="F40" s="8" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28">
-      <c r="A40" s="23" t="s">
+    <row r="41" spans="1:6" ht="28">
+      <c r="A41" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="C40" s="14" t="s">
+      <c r="B41" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>730</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="D41" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="56">
-      <c r="A42" s="6" t="s">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="56">
+      <c r="A43" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="8" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="8" t="s">
         <v>616</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
       <formula1>AnalysisType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B17">
       <formula1>TrueFalse</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>Workflow</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
@@ -6624,7 +6704,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -6976,7 +7056,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7062,7 +7142,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7092,7 +7172,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7262,7 +7342,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7290,13 +7370,13 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="Q22" s="42" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="R22" s="42" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="S22" s="42"/>
       <c r="T22" s="42"/>
@@ -7466,7 +7546,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7630,7 +7710,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7727,7 +7807,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -7794,13 +7874,13 @@
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G35" s="42" t="s">
         <v>64</v>
@@ -7934,7 +8014,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -9809,7 +9889,7 @@
         <v>636</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>637</v>
@@ -9842,7 +9922,7 @@
         <v>639</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>640</v>
@@ -9875,7 +9955,7 @@
         <v>642</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>643</v>
@@ -9908,7 +9988,7 @@
         <v>645</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>646</v>
@@ -9938,15 +10018,15 @@
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -9967,15 +10047,15 @@
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
@@ -9996,15 +10076,15 @@
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>64</v>
@@ -10025,15 +10105,15 @@
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>64</v>
@@ -10054,12 +10134,12 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10083,12 +10163,12 @@
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10112,12 +10192,12 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10141,12 +10221,12 @@
     </row>
     <row r="15" spans="1:13" s="23" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10170,12 +10250,12 @@
     </row>
     <row r="16" spans="1:13" s="23" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10199,12 +10279,12 @@
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10228,12 +10308,12 @@
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10257,12 +10337,12 @@
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10286,12 +10366,12 @@
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10315,12 +10395,12 @@
     </row>
     <row r="21" spans="1:13" s="22" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10344,12 +10424,12 @@
     </row>
     <row r="22" spans="1:13" s="22" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10373,12 +10453,12 @@
     </row>
     <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10402,12 +10482,12 @@
     </row>
     <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>470</v>
@@ -10431,12 +10511,12 @@
     </row>
     <row r="25" spans="1:13" s="23" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>470</v>
@@ -10460,15 +10540,15 @@
     </row>
     <row r="26" spans="1:13" s="23" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>64</v>
@@ -18931,7 +19011,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18955,14 +19035,14 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="29" t="s">
         <v>651</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -18975,11 +19055,11 @@
         <v>654</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="22" customFormat="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="29" t="s">
         <v>593</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -18992,11 +19072,11 @@
         <v>655</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="22" customFormat="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="29" t="s">
         <v>595</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -19009,11 +19089,11 @@
         <v>656</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="29" t="s">
         <v>597</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -19026,126 +19106,126 @@
         <v>657</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="22" customFormat="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>658</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="E6" s="22" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="22" customFormat="1">
+      <c r="A7" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C7" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="22" customFormat="1">
+      <c r="A8" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="22" customFormat="1">
+      <c r="A9" s="29" t="s">
+        <v>604</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E9" s="22" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="29" t="s">
+        <v>606</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>660</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="22" customFormat="1">
-      <c r="A7" s="22" t="s">
+      <c r="C10" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="E10" s="22" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="22" customFormat="1">
+      <c r="A11" s="29" t="s">
+        <v>739</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="22" customFormat="1">
+      <c r="A12" s="29" t="s">
+        <v>738</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>662</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="22" customFormat="1">
-      <c r="A8" s="22" t="s">
-        <v>599</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="C12" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>664</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="22" customFormat="1">
-      <c r="A9" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>603</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1">
-      <c r="A11" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>665</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="22" customFormat="1">
-      <c r="A12" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>666</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>667</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1"/>

--- a/projects/template_lhs_discrete_continuous.xlsx
+++ b/projects/template_lhs_discrete_continuous.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="27640" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27640" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="746">
   <si>
     <t>type</t>
   </si>
@@ -2160,9 +2160,6 @@
     <t>$</t>
   </si>
   <si>
-    <t>West PF</t>
-  </si>
-  <si>
     <t>Site EUI</t>
   </si>
   <si>
@@ -2269,6 +2266,18 @@
   </si>
   <si>
     <t>$1.71/hour</t>
+  </si>
+  <si>
+    <t>West WWR</t>
+  </si>
+  <si>
+    <t>South PF</t>
+  </si>
+  <si>
+    <t>East PF</t>
+  </si>
+  <si>
+    <t>East Projection Factor</t>
   </si>
 </sst>
 </file>
@@ -2430,8 +2439,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1515">
+  <cellStyleXfs count="1523">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4049,7 +4066,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1515">
+  <cellStyles count="1523">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4807,6 +4824,10 @@
     <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1512" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1522" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5564,6 +5585,10 @@
     <cellStyle name="Hyperlink" xfId="1509" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1511" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1521" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5866,7 +5891,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5904,7 +5929,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -5926,7 +5951,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -5971,7 +5996,7 @@
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>440</v>
+        <v>604</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
@@ -5979,11 +6004,11 @@
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>8 Cores with 80 GB</v>
+        <v>16 Cores with 160 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.42/hour</v>
+        <v>$0.84/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
@@ -6002,7 +6027,7 @@
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$0.7/hour</v>
+        <v>$1.12/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>609</v>
@@ -6010,16 +6035,16 @@
     </row>
     <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A10" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>732</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>733</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1">
@@ -6037,7 +6062,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>473</v>
@@ -6048,7 +6073,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>619</v>
@@ -6179,14 +6204,14 @@
       </c>
       <c r="B26" s="18">
         <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="C26" s="25" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D26" s="27">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E26" s="23"/>
     </row>
@@ -6352,7 +6377,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6378,13 +6403,13 @@
         <v>32</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>450</v>
@@ -6437,10 +6462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z98"/>
+  <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6704,7 +6729,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -7056,7 +7081,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7142,7 +7167,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7172,7 +7197,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7342,7 +7367,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7370,13 +7395,13 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q22" s="42" t="s">
         <v>728</v>
       </c>
-      <c r="Q22" s="42" t="s">
-        <v>729</v>
-      </c>
       <c r="R22" s="42" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="S22" s="42"/>
       <c r="T22" s="42"/>
@@ -7546,7 +7571,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7643,7 +7668,7 @@
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>617</v>
+        <v>82</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>84</v>
@@ -7710,7 +7735,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>717</v>
+        <v>742</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7751,7 +7776,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="32" spans="1:26" s="29" customFormat="1" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7789,7 +7814,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="33" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -7807,7 +7832,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>667</v>
+        <v>617</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -7829,27 +7854,27 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="28" customFormat="1">
-      <c r="A34" s="39" t="b">
+    <row r="34" spans="1:26" s="22" customFormat="1" ht="15">
+      <c r="A34" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="39" t="s">
-        <v>169</v>
+      <c r="B34" s="45" t="s">
+        <v>383</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
       <c r="K34" s="39"/>
       <c r="L34" s="39"/>
       <c r="M34" s="39"/>
@@ -7867,46 +7892,44 @@
       <c r="Y34" s="39"/>
       <c r="Z34" s="39"/>
     </row>
-    <row r="35" spans="1:26" s="22" customFormat="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42" t="s">
+    <row r="35" spans="1:26" s="22" customFormat="1" ht="15">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42" t="s">
-        <v>730</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>706</v>
-      </c>
-      <c r="G35" s="42" t="s">
+      <c r="C35" s="46"/>
+      <c r="D35" s="46" t="s">
+        <v>716</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="J35" s="42"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="J35" s="46"/>
       <c r="K35" s="42">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L35" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="M35" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="N35" s="42">
-        <v>0.133333333</v>
-      </c>
-      <c r="O35" s="42"/>
+        <v>0.95</v>
+      </c>
+      <c r="M35" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="N35" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="O35" s="43"/>
       <c r="P35" s="42"/>
       <c r="Q35" s="42"/>
       <c r="R35" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S35" s="42"/>
       <c r="T35" s="42"/>
@@ -7917,29 +7940,27 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" s="22" customFormat="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>84</v>
-      </c>
+    <row r="36" spans="1:26" s="22" customFormat="1" ht="15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10">
+        <v>30</v>
+      </c>
+      <c r="J36" s="10"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
@@ -7957,29 +7978,31 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="22" customFormat="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
+    <row r="37" spans="1:26" s="29" customFormat="1" ht="15">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
@@ -7995,154 +8018,164 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="29" customFormat="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15" t="s">
+    <row r="38" spans="1:26" s="28" customFormat="1">
+      <c r="A38" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+    </row>
+    <row r="39" spans="1:26" s="22" customFormat="1">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42" t="s">
+        <v>729</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>743</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42">
+        <v>0</v>
+      </c>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42">
+        <v>0</v>
+      </c>
+      <c r="L39" s="42">
+        <v>1</v>
+      </c>
+      <c r="M39" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="N39" s="42">
+        <v>0.133333333</v>
+      </c>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="42"/>
+    </row>
+    <row r="40" spans="1:26" s="22" customFormat="1">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-    </row>
-    <row r="39" spans="1:26" s="28" customFormat="1" ht="15">
-      <c r="A39" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>400</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>400</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
-    </row>
-    <row r="40" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-    </row>
-    <row r="41" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+    </row>
+    <row r="41" spans="1:26" s="22" customFormat="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
@@ -8151,19 +8184,29 @@
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
     </row>
-    <row r="42" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
+    <row r="42" spans="1:26" s="29" customFormat="1">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
       <c r="M42" s="15"/>
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
@@ -8179,75 +8222,119 @@
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
     </row>
-    <row r="43" spans="1:26" s="29" customFormat="1" ht="15">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-    </row>
-    <row r="44" spans="1:26" s="28" customFormat="1" ht="15">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-    </row>
-    <row r="45" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
+    <row r="43" spans="1:26" s="28" customFormat="1">
+      <c r="A43" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
+    </row>
+    <row r="44" spans="1:26" s="22" customFormat="1">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42" t="s">
+        <v>745</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>744</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42">
+        <v>0</v>
+      </c>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42">
+        <v>0</v>
+      </c>
+      <c r="L44" s="42">
+        <v>1</v>
+      </c>
+      <c r="M44" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="N44" s="42">
+        <v>0.133333333</v>
+      </c>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+    </row>
+    <row r="45" spans="1:26" s="22" customFormat="1">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
@@ -8263,19 +8350,29 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
     </row>
-    <row r="46" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
+    <row r="46" spans="1:26" s="22" customFormat="1">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
@@ -8291,19 +8388,29 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
     </row>
-    <row r="47" spans="1:26" s="22" customFormat="1" ht="15">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
+    <row r="47" spans="1:26" s="29" customFormat="1">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
@@ -8319,82 +8426,116 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
     </row>
-    <row r="48" spans="1:26" s="29" customFormat="1" ht="15">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
+    <row r="48" spans="1:26" s="28" customFormat="1" ht="15">
+      <c r="A48" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
+      <c r="Z48" s="39"/>
     </row>
     <row r="49" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
+      <c r="B49" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
+      <c r="D49" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>402</v>
+      </c>
       <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="G49" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="I49" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>432</v>
+      </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="15"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
     </row>
     <row r="50" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
+      <c r="B50" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
+      <c r="D50" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>404</v>
+      </c>
       <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="G50" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
+      <c r="I50" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>434</v>
+      </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
       <c r="T50" s="15"/>
       <c r="U50" s="15"/>
       <c r="V50" s="15"/>
@@ -8488,7 +8629,7 @@
       <c r="Z53" s="15"/>
     </row>
     <row r="54" spans="1:26" customFormat="1" ht="15">
-      <c r="A54" s="10"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -8515,8 +8656,8 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" customFormat="1" ht="15">
-      <c r="A55" s="15"/>
+    <row r="55" spans="1:26" ht="15">
+      <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -8543,7 +8684,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" ht="15">
+    <row r="56" spans="1:26" customFormat="1" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8556,11 +8697,11 @@
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
       <c r="R56" s="15"/>
       <c r="S56" s="15"/>
       <c r="T56" s="15"/>
@@ -8571,8 +8712,8 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" customFormat="1" ht="15">
-      <c r="A57" s="10"/>
+    <row r="57" spans="1:26" ht="15">
+      <c r="A57" s="15"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -8584,11 +8725,11 @@
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
       <c r="R57" s="15"/>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
@@ -8600,7 +8741,7 @@
       <c r="Z57" s="15"/>
     </row>
     <row r="58" spans="1:26" ht="15">
-      <c r="A58" s="15"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -8612,7 +8753,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
-      <c r="M58" s="15"/>
+      <c r="M58" s="10"/>
       <c r="N58" s="15"/>
       <c r="O58" s="15"/>
       <c r="P58" s="15"/>
@@ -8640,11 +8781,11 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="41"/>
       <c r="R59" s="15"/>
       <c r="S59" s="15"/>
       <c r="T59" s="15"/>
@@ -8656,7 +8797,7 @@
       <c r="Z59" s="15"/>
     </row>
     <row r="60" spans="1:26" ht="15">
-      <c r="A60" s="10"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -8668,11 +8809,11 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
       <c r="R60" s="15"/>
       <c r="S60" s="15"/>
       <c r="T60" s="15"/>
@@ -8684,7 +8825,7 @@
       <c r="Z60" s="15"/>
     </row>
     <row r="61" spans="1:26" ht="15">
-      <c r="A61" s="15"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -8696,7 +8837,7 @@
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
-      <c r="M61" s="15"/>
+      <c r="M61" s="10"/>
       <c r="N61" s="15"/>
       <c r="O61" s="15"/>
       <c r="P61" s="15"/>
@@ -8724,11 +8865,11 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
       <c r="R62" s="15"/>
       <c r="S62" s="15"/>
       <c r="T62" s="15"/>
@@ -8740,7 +8881,7 @@
       <c r="Z62" s="15"/>
     </row>
     <row r="63" spans="1:26" ht="15">
-      <c r="A63" s="10"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -8752,11 +8893,11 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
       <c r="T63" s="15"/>
@@ -8768,7 +8909,7 @@
       <c r="Z63" s="15"/>
     </row>
     <row r="64" spans="1:26" ht="15">
-      <c r="A64" s="15"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -8780,7 +8921,7 @@
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
-      <c r="M64" s="15"/>
+      <c r="M64" s="10"/>
       <c r="N64" s="15"/>
       <c r="O64" s="15"/>
       <c r="P64" s="15"/>
@@ -8808,11 +8949,11 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
       <c r="R65" s="15"/>
       <c r="S65" s="15"/>
       <c r="T65" s="15"/>
@@ -8824,7 +8965,7 @@
       <c r="Z65" s="15"/>
     </row>
     <row r="66" spans="1:26" ht="15">
-      <c r="A66" s="10"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -8836,11 +8977,11 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
       <c r="R66" s="15"/>
       <c r="S66" s="15"/>
       <c r="T66" s="15"/>
@@ -8852,7 +8993,7 @@
       <c r="Z66" s="15"/>
     </row>
     <row r="67" spans="1:26" ht="15">
-      <c r="A67" s="15"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -8864,7 +9005,7 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
-      <c r="M67" s="15"/>
+      <c r="M67" s="10"/>
       <c r="N67" s="15"/>
       <c r="O67" s="15"/>
       <c r="P67" s="15"/>
@@ -8892,11 +9033,11 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
       <c r="R68" s="15"/>
       <c r="S68" s="15"/>
       <c r="T68" s="15"/>
@@ -8907,24 +9048,24 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26" ht="15">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
+    <row r="69" spans="1:26">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
       <c r="R69" s="15"/>
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
@@ -9006,8 +9147,8 @@
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
       <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
       <c r="Q72" s="15"/>
       <c r="R72" s="15"/>
       <c r="S72" s="15"/>
@@ -9034,8 +9175,8 @@
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
       <c r="R73" s="15"/>
       <c r="S73" s="15"/>
@@ -9159,7 +9300,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" ht="15">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9173,9 +9314,9 @@
       <c r="K78" s="15"/>
       <c r="L78" s="15"/>
       <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="41"/>
       <c r="Q78" s="15"/>
       <c r="R78" s="15"/>
       <c r="S78" s="15"/>
@@ -9187,7 +9328,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26" ht="15">
+    <row r="79" spans="1:26">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9201,9 +9342,9 @@
       <c r="K79" s="15"/>
       <c r="L79" s="15"/>
       <c r="M79" s="15"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="41"/>
-      <c r="P79" s="41"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
@@ -9355,8 +9496,8 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26">
-      <c r="A85" s="15"/>
+    <row r="85" spans="1:26" ht="15">
+      <c r="A85" s="10"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
@@ -9370,8 +9511,8 @@
       <c r="L85" s="15"/>
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
+      <c r="O85" s="41"/>
+      <c r="P85" s="41"/>
       <c r="Q85" s="15"/>
       <c r="R85" s="15"/>
       <c r="S85" s="15"/>
@@ -9383,8 +9524,8 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26" ht="15">
-      <c r="A86" s="10"/>
+    <row r="86" spans="1:26">
+      <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
@@ -9398,8 +9539,8 @@
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
       <c r="R86" s="15"/>
       <c r="S86" s="15"/>
@@ -9426,8 +9567,8 @@
       <c r="L87" s="15"/>
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
       <c r="Q87" s="15"/>
       <c r="R87" s="15"/>
       <c r="S87" s="15"/>
@@ -9482,8 +9623,8 @@
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
       <c r="R89" s="15"/>
       <c r="S89" s="15"/>
@@ -9510,8 +9651,8 @@
       <c r="L90" s="15"/>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
+      <c r="O90" s="41"/>
+      <c r="P90" s="41"/>
       <c r="Q90" s="15"/>
       <c r="R90" s="15"/>
       <c r="S90" s="15"/>
@@ -9538,8 +9679,8 @@
       <c r="L91" s="15"/>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="15"/>
       <c r="S91" s="15"/>
@@ -9566,8 +9707,8 @@
       <c r="L92" s="15"/>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
+      <c r="O92" s="41"/>
+      <c r="P92" s="41"/>
       <c r="Q92" s="15"/>
       <c r="R92" s="15"/>
       <c r="S92" s="15"/>
@@ -9594,8 +9735,8 @@
       <c r="L93" s="15"/>
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
       <c r="Q93" s="15"/>
       <c r="R93" s="15"/>
       <c r="S93" s="15"/>
@@ -9622,8 +9763,8 @@
       <c r="L94" s="15"/>
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
-      <c r="P94" s="15"/>
+      <c r="O94" s="41"/>
+      <c r="P94" s="41"/>
       <c r="Q94" s="15"/>
       <c r="R94" s="15"/>
       <c r="S94" s="15"/>
@@ -9650,8 +9791,8 @@
       <c r="L95" s="15"/>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="15"/>
       <c r="Q95" s="15"/>
       <c r="R95" s="15"/>
       <c r="S95" s="15"/>
@@ -9678,8 +9819,8 @@
       <c r="L96" s="15"/>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
-      <c r="P96" s="15"/>
+      <c r="O96" s="41"/>
+      <c r="P96" s="41"/>
       <c r="Q96" s="15"/>
       <c r="R96" s="15"/>
       <c r="S96" s="15"/>
@@ -9706,8 +9847,8 @@
       <c r="L97" s="15"/>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
       <c r="Q97" s="15"/>
       <c r="R97" s="15"/>
       <c r="S97" s="15"/>
@@ -9718,34 +9859,6 @@
       <c r="X97" s="15"/>
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
-    </row>
-    <row r="98" spans="1:26">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="15"/>
-      <c r="S98" s="15"/>
-      <c r="T98" s="15"/>
-      <c r="U98" s="15"/>
-      <c r="V98" s="15"/>
-      <c r="W98" s="15"/>
-      <c r="X98" s="15"/>
-      <c r="Y98" s="15"/>
-      <c r="Z98" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>
@@ -9889,7 +10002,7 @@
         <v>636</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>637</v>
@@ -9922,7 +10035,7 @@
         <v>639</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>640</v>
@@ -9955,7 +10068,7 @@
         <v>642</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>643</v>
@@ -9988,7 +10101,7 @@
         <v>645</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>646</v>
@@ -10023,7 +10136,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>670</v>
@@ -10052,7 +10165,7 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>670</v>
@@ -10081,7 +10194,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>670</v>
@@ -10110,7 +10223,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>674</v>
@@ -19123,7 +19236,7 @@
         <v>658</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
@@ -19140,7 +19253,7 @@
         <v>656</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
@@ -19157,7 +19270,7 @@
         <v>657</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19174,7 +19287,7 @@
         <v>659</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19191,21 +19304,21 @@
         <v>661</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
       <c r="A11" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>739</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>740</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>741</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>664</v>
@@ -19213,16 +19326,16 @@
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
       <c r="A12" s="29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>664</v>

--- a/projects/template_lhs_discrete_continuous.xlsx
+++ b/projects/template_lhs_discrete_continuous.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27640" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="762">
   <si>
     <t>type</t>
   </si>
@@ -2244,9 +2244,6 @@
     <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
   </si>
   <si>
-    <t>0.3.6</t>
-  </si>
-  <si>
     <t>Recommended for worker</t>
   </si>
   <si>
@@ -2278,6 +2275,57 @@
   </si>
   <si>
     <t>East Projection Factor</t>
+  </si>
+  <si>
+    <t>Worker Initialization Scripts - Name</t>
+  </si>
+  <si>
+    <t>Path (relative or absolute) to local script)</t>
+  </si>
+  <si>
+    <t>Worker Finalization Scripts - Name</t>
+  </si>
+  <si>
+    <t>These scripts will be executed in this order on each worker node when it is initialized.  These can be used to download any analysis-wide files such as BCL data, utility data, etc. Name is arbitary, but a name must exist to include the line.</t>
+  </si>
+  <si>
+    <t>These scripts will be executed in this order on each worker node when it is finalized. Can be used to push all the results of the anlaysis to a specific location. Name is arbitary, but a name must exist to include the line.</t>
+  </si>
+  <si>
+    <t>Arguments (in the form of an array ["19837,"z",{b: 'something'}])</t>
+  </si>
+  <si>
+    <t>Example Worker Init Script</t>
+  </si>
+  <si>
+    <t>../worker_scripts/example_init_file.rb</t>
+  </si>
+  <si>
+    <t>Path (relative or absolute) to local script</t>
+  </si>
+  <si>
+    <t>["Argument 1", 2]</t>
+  </si>
+  <si>
+    <t>This is an example of configuring a worker initialization script.</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio South</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio West</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio East</t>
+  </si>
+  <si>
+    <t>Overhangs PF South</t>
+  </si>
+  <si>
+    <t>Overhangs PF East</t>
+  </si>
+  <si>
+    <t>0.3.7</t>
   </si>
 </sst>
 </file>
@@ -2439,8 +2487,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1523">
+  <cellStyleXfs count="1559">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4066,7 +4150,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1523">
+  <cellStyles count="1559">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4828,6 +4912,24 @@
     <cellStyle name="Followed Hyperlink" xfId="1518" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1520" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5589,6 +5691,24 @@
     <cellStyle name="Hyperlink" xfId="1517" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1519" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1557" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5888,11 +6008,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -5928,8 +6046,8 @@
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>734</v>
+      <c r="B3" s="44" t="s">
+        <v>761</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -6204,14 +6322,14 @@
       </c>
       <c r="B26" s="18">
         <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="C26" s="25" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D26" s="27">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="E26" s="23"/>
     </row>
@@ -6429,6 +6547,62 @@
       <c r="E43" s="6"/>
       <c r="F43" s="8" t="s">
         <v>616</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="2" customFormat="1">
+      <c r="B44" s="25"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
+      <c r="A46" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="8" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1">
+      <c r="A47" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="23" customFormat="1">
+      <c r="B48" s="18"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
+      <c r="A49" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="8" t="s">
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -6464,8 +6638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7126,7 +7300,7 @@
       <c r="A16" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="39" t="s">
         <v>255</v>
       </c>
       <c r="C16" s="39" t="s">
@@ -7326,7 +7500,7 @@
       <c r="A21" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="39" t="s">
         <v>265</v>
       </c>
       <c r="C21" s="39" t="s">
@@ -7530,8 +7704,8 @@
       <c r="A26" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="45" t="s">
-        <v>383</v>
+      <c r="B26" s="39" t="s">
+        <v>756</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7694,8 +7868,8 @@
       <c r="A30" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B30" s="45" t="s">
-        <v>383</v>
+      <c r="B30" s="39" t="s">
+        <v>757</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -7735,7 +7909,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7858,8 +8032,8 @@
       <c r="A34" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="45" t="s">
-        <v>383</v>
+      <c r="B34" s="39" t="s">
+        <v>758</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>76</v>
@@ -8023,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>169</v>
+        <v>759</v>
       </c>
       <c r="C38" s="39" t="s">
         <v>170</v>
@@ -8069,7 +8243,7 @@
         <v>172</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G39" s="42" t="s">
         <v>64</v>
@@ -8227,7 +8401,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>169</v>
+        <v>760</v>
       </c>
       <c r="C43" s="39" t="s">
         <v>170</v>
@@ -8267,13 +8441,13 @@
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="42" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G44" s="42" t="s">
         <v>64</v>
@@ -9881,7 +10055,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9889,7 +10063,7 @@
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
@@ -10145,7 +10319,7 @@
         <v>64</v>
       </c>
       <c r="G8" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="15" t="b">
         <v>1</v>
@@ -10174,7 +10348,7 @@
         <v>64</v>
       </c>
       <c r="G9" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="15" t="b">
         <v>1</v>
@@ -10203,7 +10377,7 @@
         <v>64</v>
       </c>
       <c r="G10" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="15" t="b">
         <v>1</v>
@@ -19236,7 +19410,7 @@
         <v>658</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
@@ -19253,7 +19427,7 @@
         <v>656</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
@@ -19270,7 +19444,7 @@
         <v>657</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19287,7 +19461,7 @@
         <v>659</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19304,21 +19478,21 @@
         <v>661</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
       <c r="A11" s="29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>739</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>740</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>664</v>
@@ -19326,16 +19500,16 @@
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
       <c r="A12" s="29" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>664</v>

--- a/projects/template_lhs_discrete_continuous.xlsx
+++ b/projects/template_lhs_discrete_continuous.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
@@ -2232,9 +2232,6 @@
     <t>South Projection Factor</t>
   </si>
   <si>
-    <t>1.8.0</t>
-  </si>
-  <si>
     <t>AWS Tag</t>
   </si>
   <si>
@@ -2325,7 +2322,10 @@
     <t>Overhangs PF East</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>1.9.0</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
   </si>
 </sst>
 </file>
@@ -2487,8 +2487,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1559">
+  <cellStyleXfs count="1561">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4150,7 +4152,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1559">
+  <cellStyles count="1561">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4930,6 +4932,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1554" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1560" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5709,6 +5712,7 @@
     <cellStyle name="Hyperlink" xfId="1553" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1555" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1559" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6010,7 +6014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -6069,7 +6075,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>
@@ -6153,16 +6159,16 @@
     </row>
     <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A10" s="23" t="s">
+        <v>730</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>731</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>732</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1">
@@ -6322,14 +6328,14 @@
       </c>
       <c r="B26" s="18">
         <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C26" s="25" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
       <c r="D26" s="27">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E26" s="23"/>
     </row>
@@ -6555,34 +6561,34 @@
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A46" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B47" s="25" t="s">
         <v>751</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>752</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="23" customFormat="1">
@@ -6591,18 +6597,18 @@
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A49" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -7705,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7869,7 +7875,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -7909,7 +7915,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -8033,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>76</v>
@@ -8197,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C38" s="39" t="s">
         <v>170</v>
@@ -8243,7 +8249,7 @@
         <v>172</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G39" s="42" t="s">
         <v>64</v>
@@ -8401,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C43" s="39" t="s">
         <v>170</v>
@@ -8441,13 +8447,13 @@
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="42" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G44" s="42" t="s">
         <v>64</v>
@@ -19410,7 +19416,7 @@
         <v>658</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
@@ -19427,7 +19433,7 @@
         <v>656</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
@@ -19444,7 +19450,7 @@
         <v>657</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19461,7 +19467,7 @@
         <v>659</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19478,21 +19484,21 @@
         <v>661</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
       <c r="A11" s="29" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>738</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>739</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>664</v>
@@ -19500,16 +19506,16 @@
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
       <c r="A12" s="29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>664</v>

--- a/projects/template_lhs_discrete_continuous.xlsx
+++ b/projects/template_lhs_discrete_continuous.xlsx
@@ -2322,10 +2322,10 @@
     <t>Overhangs PF East</t>
   </si>
   <si>
-    <t>1.9.0</t>
-  </si>
-  <si>
     <t>0.4.0</t>
+  </si>
+  <si>
+    <t>1.9.3</t>
   </si>
 </sst>
 </file>
@@ -6015,7 +6015,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6053,7 +6053,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
@@ -6075,7 +6075,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>618</v>

--- a/projects/template_lhs_discrete_continuous.xlsx
+++ b/projects/template_lhs_discrete_continuous.xlsx
@@ -1869,15 +1869,9 @@
     <t>Default Cluster</t>
   </si>
   <si>
-    <t>Number of worker nodes to start.</t>
-  </si>
-  <si>
     <t>Use a minimum of 2 cores for server.</t>
   </si>
   <si>
-    <t>Enable this for certain analysis. Typically do not use the server as a worker.</t>
-  </si>
-  <si>
     <t>Problem Type</t>
   </si>
   <si>
@@ -1896,9 +1890,6 @@
     <t>West</t>
   </si>
   <si>
-    <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/rsrc/amis_v2.json</t>
-  </si>
-  <si>
     <t>Relative to this spreadsheet or absolute path</t>
   </si>
   <si>
@@ -2322,10 +2313,19 @@
     <t>Overhangs PF East</t>
   </si>
   <si>
-    <t>0.4.0</t>
-  </si>
-  <si>
     <t>1.9.3</t>
+  </si>
+  <si>
+    <t>Choose which OpenStudio Server Version to use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/api/amis_v2.json</t>
+  </si>
+  <si>
+    <t>Typically leave this as TRUE unless you are running many worker nodes.</t>
+  </si>
+  <si>
+    <t>0.4.2</t>
+  </si>
+  <si>
+    <t>Number of worker nodes to start. This can be zero for testing purposes (all simulations will be run on the server node).</t>
   </si>
 </sst>
 </file>
@@ -6014,9 +6014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -6075,10 +6073,10 @@
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>618</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46" customHeight="1">
@@ -6112,7 +6110,7 @@
         <v>$0.28/hour</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28">
@@ -6120,7 +6118,7 @@
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>604</v>
+        <v>440</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
@@ -6128,17 +6126,17 @@
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>16 Cores with 160 GB</v>
+        <v>8 Cores with 80 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.84/hour</v>
+        <v>$0.42/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="28">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -6147,28 +6145,28 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$1.12/hour</v>
+        <v>$0.7/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>609</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
       <c r="A10" s="23" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1">
@@ -6186,7 +6184,7 @@
         <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>473</v>
@@ -6197,10 +6195,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6211,7 +6209,7 @@
         <v>452</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6233,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>611</v>
+        <v>759</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6263,7 +6261,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -6290,13 +6288,13 @@
         <v>451</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
@@ -6487,7 +6485,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>31</v>
@@ -6501,7 +6499,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6515,7 +6513,7 @@
         <v>38</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="8" t="s">
@@ -6527,13 +6525,13 @@
         <v>32</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>450</v>
@@ -6547,12 +6545,12 @@
         <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="2" customFormat="1">
@@ -6561,34 +6559,34 @@
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A46" s="6" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="8" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>751</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="7" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="23" customFormat="1">
@@ -6597,18 +6595,18 @@
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A49" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>746</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>745</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>749</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="8" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -6644,9 +6642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -6763,7 +6759,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>11</v>
@@ -6909,7 +6905,7 @@
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -7261,7 +7257,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7347,7 +7343,7 @@
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7377,7 +7373,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7547,7 +7543,7 @@
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7575,13 +7571,13 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="Q22" s="42" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="R22" s="42" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="S22" s="42"/>
       <c r="T22" s="42"/>
@@ -7711,7 +7707,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7751,7 +7747,7 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7875,7 +7871,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -7915,7 +7911,7 @@
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -8012,7 +8008,7 @@
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>84</v>
@@ -8039,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>76</v>
@@ -8079,7 +8075,7 @@
       </c>
       <c r="C35" s="46"/>
       <c r="D35" s="46" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E35" s="46" t="s">
         <v>77</v>
@@ -8176,7 +8172,7 @@
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>84</v>
@@ -8203,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C38" s="39" t="s">
         <v>170</v>
@@ -8243,13 +8239,13 @@
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="42" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G39" s="42" t="s">
         <v>64</v>
@@ -8383,7 +8379,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
@@ -8407,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C43" s="39" t="s">
         <v>170</v>
@@ -8447,13 +8443,13 @@
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="42" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G44" s="42" t="s">
         <v>64</v>
@@ -8508,7 +8504,7 @@
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="15" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>84</v>
@@ -8587,7 +8583,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
@@ -10104,10 +10100,10 @@
         <v>461</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>462</v>
@@ -10119,41 +10115,41 @@
         <v>11</v>
       </c>
       <c r="G2" s="35" t="s">
+        <v>620</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>621</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>622</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="K2" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>625</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>627</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>628</v>
       </c>
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
       <c r="A3" s="35" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>463</v>
@@ -10165,30 +10161,30 @@
         <v>463</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="23" customFormat="1">
       <c r="A4" s="15" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>470</v>
@@ -10212,16 +10208,16 @@
     </row>
     <row r="5" spans="1:13" s="23" customFormat="1">
       <c r="A5" s="15" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>470</v>
@@ -10245,16 +10241,16 @@
     </row>
     <row r="6" spans="1:13" s="23" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>470</v>
@@ -10278,16 +10274,16 @@
     </row>
     <row r="7" spans="1:13" s="23" customFormat="1">
       <c r="A7" s="15" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>470</v>
@@ -10311,15 +10307,15 @@
     </row>
     <row r="8" spans="1:13" s="23" customFormat="1">
       <c r="A8" s="15" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
@@ -10340,15 +10336,15 @@
     </row>
     <row r="9" spans="1:13" s="23" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
@@ -10369,15 +10365,15 @@
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1">
       <c r="A10" s="15" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>64</v>
@@ -10398,15 +10394,15 @@
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1">
       <c r="A11" s="15" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>64</v>
@@ -10427,12 +10423,12 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10456,12 +10452,12 @@
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1">
       <c r="A13" s="15" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10485,12 +10481,12 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10514,12 +10510,12 @@
     </row>
     <row r="15" spans="1:13" s="23" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10543,12 +10539,12 @@
     </row>
     <row r="16" spans="1:13" s="23" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10572,12 +10568,12 @@
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10601,12 +10597,12 @@
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10630,12 +10626,12 @@
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10659,12 +10655,12 @@
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10688,12 +10684,12 @@
     </row>
     <row r="21" spans="1:13" s="22" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10717,12 +10713,12 @@
     </row>
     <row r="22" spans="1:13" s="22" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10746,12 +10742,12 @@
     </row>
     <row r="23" spans="1:13" s="23" customFormat="1">
       <c r="A23" s="15" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10775,12 +10771,12 @@
     </row>
     <row r="24" spans="1:13" s="23" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>470</v>
@@ -10804,12 +10800,12 @@
     </row>
     <row r="25" spans="1:13" s="23" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>470</v>
@@ -10833,15 +10829,15 @@
     </row>
     <row r="26" spans="1:13" s="23" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>64</v>
@@ -19328,7 +19324,7 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -19336,19 +19332,19 @@
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1">
       <c r="A2" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>652</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>654</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="22" customFormat="1">
@@ -19362,10 +19358,10 @@
         <v>594</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="22" customFormat="1">
@@ -19379,10 +19375,10 @@
         <v>596</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1">
@@ -19396,10 +19392,10 @@
         <v>598</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="22" customFormat="1">
@@ -19413,10 +19409,10 @@
         <v>600</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1">
@@ -19430,10 +19426,10 @@
         <v>602</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="22" customFormat="1">
@@ -19447,10 +19443,10 @@
         <v>603</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="22" customFormat="1">
@@ -19464,10 +19460,10 @@
         <v>605</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19475,50 +19471,50 @@
         <v>606</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>607</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="22" customFormat="1">
       <c r="A11" s="29" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1">
       <c r="A12" s="29" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="22" customFormat="1"/>

--- a/projects/template_lhs_discrete_continuous.xlsx
+++ b/projects/template_lhs_discrete_continuous.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19840" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!$A$2:$H$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$3</definedName>
-    <definedName name="AnalysisType">Lookups!$A$21:$A$27</definedName>
+    <definedName name="AnalysisType">Lookups!$A$21:$A$29</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$E$12</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$12</definedName>
     <definedName name="nsga">Lookups!$O$22:$P$28</definedName>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$16:$C$17</definedName>
     <definedName name="Workflow">Lookups!$E$16:$E$17</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="763">
   <si>
     <t>type</t>
   </si>
@@ -1890,6 +1890,9 @@
     <t>West</t>
   </si>
   <si>
+    <t>Choose which OpenStudio Server Version to Use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/rsrc/amis_v2.json</t>
+  </si>
+  <si>
     <t>Relative to this spreadsheet or absolute path</t>
   </si>
   <si>
@@ -1938,27 +1941,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>Temp</t>
-  </si>
-  <si>
-    <t>Total Site Energy Intensity</t>
-  </si>
-  <si>
-    <t>total_site_energy_intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.total_energy</t>
-  </si>
-  <si>
-    <t>Total Source Energy Intensity</t>
-  </si>
-  <si>
-    <t>total_source_energy_intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.total_source_energy</t>
-  </si>
-  <si>
     <t>Total Natural Gas Intensity</t>
   </si>
   <si>
@@ -2151,12 +2133,6 @@
     <t>$</t>
   </si>
   <si>
-    <t>Site EUI</t>
-  </si>
-  <si>
-    <t>Source EUI</t>
-  </si>
-  <si>
     <t>NG EUI</t>
   </si>
   <si>
@@ -2175,157 +2151,184 @@
     <t>standard_reports.total_building_area</t>
   </si>
   <si>
+    <t>South WWR</t>
+  </si>
+  <si>
+    <t>East WWR</t>
+  </si>
+  <si>
+    <t>../measures</t>
+  </si>
+  <si>
+    <t>../weather/USA_CO_Denver.Intl.AP.725650_TMY3.epw</t>
+  </si>
+  <si>
+    <t>LPD Reduction</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>Wall R-Value</t>
+  </si>
+  <si>
+    <t>normal_uncertain</t>
+  </si>
+  <si>
+    <t>Roof R-Value</t>
+  </si>
+  <si>
+    <t>[10,30,50,80]</t>
+  </si>
+  <si>
+    <t>[0.05,0.1,0.45,0.4]</t>
+  </si>
+  <si>
+    <t>South Projection Factor</t>
+  </si>
+  <si>
+    <t>Can be used as worker</t>
+  </si>
+  <si>
+    <t>Recommended for worker</t>
+  </si>
+  <si>
+    <t>i2.xlarge</t>
+  </si>
+  <si>
+    <t>$0.85/hour</t>
+  </si>
+  <si>
+    <t>800 GB</t>
+  </si>
+  <si>
+    <t>i2.2xlarge</t>
+  </si>
+  <si>
+    <t>$1.71/hour</t>
+  </si>
+  <si>
+    <t>AWS Tag</t>
+  </si>
+  <si>
+    <t>org=5500</t>
+  </si>
+  <si>
+    <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
+  </si>
+  <si>
+    <t>Worker Initialization Scripts - Name</t>
+  </si>
+  <si>
+    <t>Path (relative or absolute) to local script</t>
+  </si>
+  <si>
+    <t>Arguments (in the form of an array ["19837,"z",{b: 'something'}])</t>
+  </si>
+  <si>
+    <t>These scripts will be executed in this order on each worker node when it is initialized.  These can be used to download any analysis-wide files such as BCL data, utility data, etc. Name is arbitary, but a name must exist to include the line.</t>
+  </si>
+  <si>
+    <t>Worker Finalization Scripts - Name</t>
+  </si>
+  <si>
+    <t>Path (relative or absolute) to local script)</t>
+  </si>
+  <si>
+    <t>These scripts will be executed in this order on each worker node when it is finalized. Can be used to push all the results of the anlaysis to a specific location. Name is arbitary, but a name must exist to include the line.</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio South</t>
+  </si>
+  <si>
+    <t>Window to Wall Ratio East</t>
+  </si>
+  <si>
+    <t>1.9.3</t>
+  </si>
+  <si>
+    <t>Number of worker nodes to start. This can be zero for testing purposes (all simulations will be run on the server node).</t>
+  </si>
+  <si>
+    <t>Typically leave this as TRUE unless you are running many worker nodes</t>
+  </si>
+  <si>
+    <t>0.4.2</t>
+  </si>
+  <si>
+    <t>single_run</t>
+  </si>
+  <si>
+    <t>repeat_run</t>
+  </si>
+  <si>
+    <t>Number of Runs</t>
+  </si>
+  <si>
+    <t>Exit On Guideline14</t>
+  </si>
+  <si>
+    <t>0 false / 1 true (for use with calibration report)</t>
+  </si>
+  <si>
+    <t>Example Worker Init Script</t>
+  </si>
+  <si>
+    <t>../worker_scripts/example_init_file.rb</t>
+  </si>
+  <si>
+    <t>["Argument 1", 2]</t>
+  </si>
+  <si>
+    <t>This is an example of configuring a worker initialization script.</t>
+  </si>
+  <si>
+    <t>../seeds/seed.osm</t>
+  </si>
+  <si>
+    <t>Discrete LHS Example</t>
+  </si>
+  <si>
+    <t>LHS Discrete and Continuous Variables</t>
+  </si>
+  <si>
     <t>discrete_uncertain</t>
   </si>
   <si>
-    <t>South WWR</t>
-  </si>
-  <si>
-    <t>East WWR</t>
-  </si>
-  <si>
-    <t>LHS Discrete and Continuous Variables</t>
-  </si>
-  <si>
-    <t>../measures</t>
-  </si>
-  <si>
-    <t>../weather/USA_CO_Denver.Intl.AP.725650_TMY3.epw</t>
-  </si>
-  <si>
-    <t>Discrete LHS Example</t>
-  </si>
-  <si>
-    <t>../seeds/seed.osm</t>
-  </si>
-  <si>
-    <t>LPD Reduction</t>
-  </si>
-  <si>
-    <t>Rotation</t>
-  </si>
-  <si>
-    <t>Wall R-Value</t>
-  </si>
-  <si>
-    <t>normal_uncertain</t>
-  </si>
-  <si>
-    <t>Roof R-Value</t>
-  </si>
-  <si>
-    <t>[10,30,50,80]</t>
-  </si>
-  <si>
-    <t>[0.05,0.1,0.45,0.4]</t>
-  </si>
-  <si>
-    <t>South Projection Factor</t>
-  </si>
-  <si>
-    <t>AWS Tag</t>
-  </si>
-  <si>
-    <t>org=5500</t>
-  </si>
-  <si>
-    <t>Add extra tags to your instances (key=value). Add another line if you need another tag.</t>
-  </si>
-  <si>
-    <t>Recommended for worker</t>
-  </si>
-  <si>
-    <t>Can be used as worker</t>
-  </si>
-  <si>
-    <t>i2.2xlarge</t>
-  </si>
-  <si>
-    <t>i2.xlarge</t>
-  </si>
-  <si>
-    <t>$0.85/hour</t>
-  </si>
-  <si>
-    <t>800 GB</t>
-  </si>
-  <si>
-    <t>$1.71/hour</t>
+    <t>Window to Wall Ratio West</t>
   </si>
   <si>
     <t>West WWR</t>
   </si>
   <si>
+    <t>Overhangs PF South</t>
+  </si>
+  <si>
     <t>South PF</t>
   </si>
   <si>
+    <t>Overhangs PF East</t>
+  </si>
+  <si>
+    <t>East Projection Factor</t>
+  </si>
+  <si>
     <t>East PF</t>
   </si>
   <si>
-    <t>East Projection Factor</t>
-  </si>
-  <si>
-    <t>Worker Initialization Scripts - Name</t>
-  </si>
-  <si>
-    <t>Path (relative or absolute) to local script)</t>
-  </si>
-  <si>
-    <t>Worker Finalization Scripts - Name</t>
-  </si>
-  <si>
-    <t>These scripts will be executed in this order on each worker node when it is initialized.  These can be used to download any analysis-wide files such as BCL data, utility data, etc. Name is arbitary, but a name must exist to include the line.</t>
-  </si>
-  <si>
-    <t>These scripts will be executed in this order on each worker node when it is finalized. Can be used to push all the results of the anlaysis to a specific location. Name is arbitary, but a name must exist to include the line.</t>
-  </si>
-  <si>
-    <t>Arguments (in the form of an array ["19837,"z",{b: 'something'}])</t>
-  </si>
-  <si>
-    <t>Example Worker Init Script</t>
-  </si>
-  <si>
-    <t>../worker_scripts/example_init_file.rb</t>
-  </si>
-  <si>
-    <t>Path (relative or absolute) to local script</t>
-  </si>
-  <si>
-    <t>["Argument 1", 2]</t>
-  </si>
-  <si>
-    <t>This is an example of configuring a worker initialization script.</t>
-  </si>
-  <si>
-    <t>Window to Wall Ratio South</t>
-  </si>
-  <si>
-    <t>Window to Wall Ratio West</t>
-  </si>
-  <si>
-    <t>Window to Wall Ratio East</t>
-  </si>
-  <si>
-    <t>Overhangs PF South</t>
-  </si>
-  <si>
-    <t>Overhangs PF East</t>
-  </si>
-  <si>
-    <t>1.9.3</t>
-  </si>
-  <si>
-    <t>Choose which OpenStudio Server Version to use.  Do NOT change this unless advised. Note that this is not the OpenStudio version.  See mappings here: http://developer.nrel.gov/downloads/buildings/openstudio/api/amis_v2.json</t>
-  </si>
-  <si>
-    <t>Typically leave this as TRUE unless you are running many worker nodes.</t>
-  </si>
-  <si>
-    <t>0.4.2</t>
-  </si>
-  <si>
-    <t>Number of worker nodes to start. This can be zero for testing purposes (all simulations will be run on the server node).</t>
+    <t>District Heating</t>
+  </si>
+  <si>
+    <t>District Cooling</t>
+  </si>
+  <si>
+    <t>standard_reports.district_heating_si</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>standard_reports.district_cooling_si</t>
   </si>
 </sst>
 </file>
@@ -2478,7 +2481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2486,8 +2489,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1561">
+  <cellStyleXfs count="1503">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3991,66 +4003,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4148,11 +4102,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1561">
+  <cellStyles count="1503">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4904,35 +4861,6 @@
     <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1506" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1508" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1512" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1514" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1516" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1518" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1520" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1522" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1524" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1526" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1528" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1530" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1532" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1534" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1536" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1538" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1540" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1542" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1544" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1546" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1548" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1550" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1552" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1554" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="1560" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5684,35 +5612,6 @@
     <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1505" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1507" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1509" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1511" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1513" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1515" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1517" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1519" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1521" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1523" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1525" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1527" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1529" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1531" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1533" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1535" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1537" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1539" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1541" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1543" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1545" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1547" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1549" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1551" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1553" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1555" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1557" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1559" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6014,19 +5913,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="20"/>
       <c r="C1" s="12"/>
@@ -6036,7 +5937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1">
+    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>435</v>
       </c>
@@ -6046,18 +5947,18 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>458</v>
       </c>
@@ -6068,18 +5969,18 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="42">
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="46" customHeight="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>472</v>
       </c>
@@ -6090,7 +5991,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6113,12 +6014,12 @@
         <v>609</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>440</v>
+        <v>606</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
@@ -6126,17 +6027,17 @@
       </c>
       <c r="D8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>8 Cores with 80 GB</v>
+        <v>32 Cores with 320 GB</v>
       </c>
       <c r="E8" s="24" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.42/hour</v>
+        <v>$1.68/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>460</v>
       </c>
@@ -6145,31 +6046,31 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="24" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E9" s="24" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$0.7/hour</v>
+        <v>$1.96/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="23" customFormat="1" ht="28">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="7" customFormat="1">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -6179,29 +6080,29 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>714</v>
+        <v>749</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6209,10 +6110,10 @@
         <v>452</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>464</v>
       </c>
@@ -6223,7 +6124,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>465</v>
       </c>
@@ -6231,10 +6132,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6245,7 +6146,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>468</v>
       </c>
@@ -6256,7 +6157,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -6270,7 +6171,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>453</v>
       </c>
@@ -6278,12 +6179,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="23" customFormat="1">
+    <row r="23" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>451</v>
       </c>
@@ -6301,191 +6202,197 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>Sample Method</v>
       </c>
       <c r="B25" s="18" t="str">
-        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>all_variables</v>
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v>individual_variables</v>
       </c>
       <c r="C25" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,1,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>individual_variables / all_variables</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>454</v>
-      </c>
+      <c r="D25" s="27"/>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:6" ht="28">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v>Number of Samples</v>
       </c>
       <c r="B26" s="18">
-        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
-        <v>100</v>
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v>30</v>
       </c>
       <c r="C26" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,2,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v>positive integer (if individual, total simulations is this times each variable)</v>
       </c>
-      <c r="D26" s="27">
-        <v>100</v>
-      </c>
+      <c r="D26" s="27"/>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
       <c r="B27" s="18" t="str">
-        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
       <c r="C27" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,3,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:6" s="23" customFormat="1">
+    <row r="28" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
       <c r="B28" s="18" t="str">
-        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
       <c r="C28" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,4,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D28" s="27"/>
     </row>
-    <row r="29" spans="1:6" s="23" customFormat="1">
+    <row r="29" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
       <c r="B29" s="18" t="str">
-        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
       <c r="C29" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,5,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30" spans="1:6" s="23" customFormat="1">
+    <row r="30" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
       <c r="B30" s="18" t="str">
-        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
       <c r="C30" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,6,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D30" s="27"/>
     </row>
-    <row r="31" spans="1:6" s="23" customFormat="1">
+    <row r="31" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
       <c r="B31" s="18" t="str">
-        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
       <c r="C31" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,7,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D31" s="27"/>
     </row>
-    <row r="32" spans="1:6" s="23" customFormat="1">
+    <row r="32" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
       <c r="B32" s="18" t="str">
-        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
       <c r="C32" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,8,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="1:6" s="23" customFormat="1">
+    <row r="33" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
       <c r="B33" s="18" t="str">
-        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
       <c r="C33" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,9,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D33" s="27"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
       <c r="B34" s="18" t="str">
-        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
       <c r="C34" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$30,10,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="23"/>
     </row>
-    <row r="35" spans="1:6" s="23" customFormat="1">
+    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-2))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
         <v/>
       </c>
       <c r="B35" s="18" t="str">
-        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)-1)))</f>
+        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
         <v/>
       </c>
       <c r="C35" s="25" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$27,0)))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$31,11,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
         <v/>
       </c>
       <c r="D35" s="27"/>
     </row>
-    <row r="36" spans="1:6" s="23" customFormat="1">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+    <row r="36" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))=0,"",INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-2))</f>
+        <v/>
+      </c>
+      <c r="B36" s="18" t="str">
+        <f>IF(D36&lt;&gt;"",D36,IF(LEN(INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1))=0,"",INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C36" s="25" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))=0,"",INDEX(Lookups!$C$21:$AC$32,12,3*MATCH(Setup!$B22,Lookups!$A$21:$A$29,0)))</f>
+        <v/>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>31</v>
@@ -6494,50 +6401,50 @@
       <c r="E37" s="6"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="47" t="s">
         <v>455</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="8" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28">
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>717</v>
+        <v>748</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>718</v>
+        <v>747</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>35</v>
       </c>
@@ -6545,7 +6452,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -6553,60 +6460,56 @@
         <v>614</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1">
-      <c r="B44" s="25"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B47" s="25" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" s="2" customFormat="1">
-      <c r="A47" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>748</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="7" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="23" customFormat="1">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="18"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="8" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -6640,37 +6543,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z97"/>
+  <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" style="23" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="1"/>
-    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="1"/>
+    <col min="17" max="17" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="1"/>
-    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.5" style="1"/>
+    <col min="19" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.5" style="1"/>
+    <col min="25" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6697,16 +6602,16 @@
       <c r="R1" s="33"/>
       <c r="S1" s="30"/>
       <c r="T1" s="30"/>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-    </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+    </row>
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -6742,7 +6647,7 @@
       <c r="Y2" s="34"/>
       <c r="Z2" s="34"/>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
@@ -6759,7 +6664,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>11</v>
@@ -6820,7 +6725,7 @@
       </c>
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="1:26" s="29" customFormat="1">
+    <row r="4" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="b">
         <v>1</v>
       </c>
@@ -6858,7 +6763,7 @@
       <c r="Y4" s="39"/>
       <c r="Z4" s="39"/>
     </row>
-    <row r="5" spans="1:26" s="22" customFormat="1">
+    <row r="5" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -6898,14 +6803,14 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" s="28" customFormat="1">
+    <row r="6" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="B6" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>46</v>
@@ -6946,7 +6851,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" s="28" customFormat="1">
+    <row r="7" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>21</v>
@@ -6984,7 +6889,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1">
+    <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>21</v>
@@ -7022,7 +6927,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1">
+    <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>21</v>
@@ -7060,7 +6965,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1">
+    <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
         <v>21</v>
@@ -7098,7 +7003,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1">
+    <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -7136,7 +7041,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" s="29" customFormat="1">
+    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -7174,7 +7079,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" s="28" customFormat="1">
+    <row r="13" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
         <v>21</v>
@@ -7212,7 +7117,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" s="22" customFormat="1">
+    <row r="14" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="b">
         <v>1</v>
       </c>
@@ -7250,14 +7155,14 @@
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
     </row>
-    <row r="15" spans="1:26" s="22" customFormat="1">
+    <row r="15" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42"/>
       <c r="B15" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>75</v>
@@ -7298,7 +7203,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="16" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="b">
         <v>1</v>
       </c>
@@ -7336,14 +7241,14 @@
       <c r="Y16" s="39"/>
       <c r="Z16" s="39"/>
     </row>
-    <row r="17" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="17" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>258</v>
@@ -7373,7 +7278,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -7384,7 +7289,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="18" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -7422,7 +7327,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="19" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -7460,7 +7365,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="20" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -7498,7 +7403,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
     </row>
-    <row r="21" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="21" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="b">
         <v>1</v>
       </c>
@@ -7536,14 +7441,14 @@
       <c r="Y21" s="39"/>
       <c r="Z21" s="39"/>
     </row>
-    <row r="22" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="22" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="46"/>
       <c r="B22" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>258</v>
@@ -7571,13 +7476,13 @@
       </c>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="Q22" s="42" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="R22" s="42" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="S22" s="42"/>
       <c r="T22" s="42"/>
@@ -7588,7 +7493,7 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="23" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -7626,7 +7531,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
     </row>
-    <row r="24" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="24" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -7664,7 +7569,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
     </row>
-    <row r="25" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="25" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -7702,12 +7607,12 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="26" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="b">
         <v>1</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>76</v>
@@ -7740,14 +7645,14 @@
       <c r="Y26" s="39"/>
       <c r="Z26" s="39"/>
     </row>
-    <row r="27" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="27" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>77</v>
@@ -7788,7 +7693,7 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="28" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -7826,7 +7731,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
     </row>
-    <row r="29" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="29" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -7866,12 +7771,12 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
     </row>
-    <row r="30" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="30" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="b">
         <v>1</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>76</v>
@@ -7904,14 +7809,14 @@
       <c r="Y30" s="39"/>
       <c r="Z30" s="39"/>
     </row>
-    <row r="31" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="31" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>77</v>
@@ -7952,7 +7857,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="32" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -7990,7 +7895,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="33" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -8030,12 +7935,12 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="34" spans="1:26" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="b">
         <v>1</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>76</v>
@@ -8068,14 +7973,14 @@
       <c r="Y34" s="39"/>
       <c r="Z34" s="39"/>
     </row>
-    <row r="35" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="35" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="46"/>
       <c r="B35" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="46"/>
       <c r="D35" s="46" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="E35" s="46" t="s">
         <v>77</v>
@@ -8116,7 +8021,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="36" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -8154,7 +8059,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
     </row>
-    <row r="37" spans="1:26" s="29" customFormat="1" ht="15">
+    <row r="37" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -8172,7 +8077,7 @@
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>84</v>
@@ -8194,12 +8099,12 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
     </row>
-    <row r="38" spans="1:26" s="28" customFormat="1">
+    <row r="38" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C38" s="39" t="s">
         <v>170</v>
@@ -8232,20 +8137,20 @@
       <c r="Y38" s="39"/>
       <c r="Z38" s="39"/>
     </row>
-    <row r="39" spans="1:26" s="22" customFormat="1">
+    <row r="39" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="42"/>
       <c r="B39" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="42" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="G39" s="42" t="s">
         <v>64</v>
@@ -8282,7 +8187,7 @@
       <c r="Y39" s="42"/>
       <c r="Z39" s="42"/>
     </row>
-    <row r="40" spans="1:26" s="22" customFormat="1">
+    <row r="40" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="15" t="s">
         <v>21</v>
@@ -8322,7 +8227,7 @@
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
     </row>
-    <row r="41" spans="1:26" s="22" customFormat="1">
+    <row r="41" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="15" t="s">
         <v>21</v>
@@ -8360,7 +8265,7 @@
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
     </row>
-    <row r="42" spans="1:26" s="29" customFormat="1">
+    <row r="42" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
       <c r="B42" s="15" t="s">
         <v>21</v>
@@ -8379,7 +8284,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
@@ -8398,12 +8303,12 @@
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
     </row>
-    <row r="43" spans="1:26" s="28" customFormat="1">
+    <row r="43" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="b">
         <v>1</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C43" s="39" t="s">
         <v>170</v>
@@ -8436,20 +8341,20 @@
       <c r="Y43" s="39"/>
       <c r="Z43" s="39"/>
     </row>
-    <row r="44" spans="1:26" s="22" customFormat="1">
+    <row r="44" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="42"/>
       <c r="B44" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="42" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="G44" s="42" t="s">
         <v>64</v>
@@ -8486,7 +8391,7 @@
       <c r="Y44" s="42"/>
       <c r="Z44" s="42"/>
     </row>
-    <row r="45" spans="1:26" s="22" customFormat="1">
+    <row r="45" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="15" t="s">
         <v>21</v>
@@ -8504,7 +8409,7 @@
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="15" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>84</v>
@@ -8526,7 +8431,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
     </row>
-    <row r="46" spans="1:26" s="22" customFormat="1">
+    <row r="46" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
         <v>21</v>
@@ -8564,7 +8469,7 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
     </row>
-    <row r="47" spans="1:26" s="29" customFormat="1">
+    <row r="47" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
         <v>21</v>
@@ -8583,7 +8488,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
@@ -8602,7 +8507,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
     </row>
-    <row r="48" spans="1:26" s="28" customFormat="1" ht="15">
+    <row r="48" spans="1:26" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="45" t="b">
         <v>1</v>
       </c>
@@ -8640,7 +8545,7 @@
       <c r="Y48" s="39"/>
       <c r="Z48" s="39"/>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="49" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -8680,7 +8585,7 @@
       <c r="Y49" s="10"/>
       <c r="Z49" s="10"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15">
+    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -8720,7 +8625,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
     </row>
-    <row r="51" spans="1:26" customFormat="1" ht="15">
+    <row r="51" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8748,7 +8653,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:26" customFormat="1" ht="15">
+    <row r="52" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8776,7 +8681,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
     </row>
-    <row r="53" spans="1:26" customFormat="1" ht="15">
+    <row r="53" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8804,8 +8709,8 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
     </row>
-    <row r="54" spans="1:26" customFormat="1" ht="15">
-      <c r="A54" s="15"/>
+    <row r="54" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -8832,8 +8737,8 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
     </row>
-    <row r="55" spans="1:26" ht="15">
-      <c r="A55" s="10"/>
+    <row r="55" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -8860,7 +8765,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
     </row>
-    <row r="56" spans="1:26" customFormat="1" ht="15">
+    <row r="56" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8873,11 +8778,11 @@
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
       <c r="R56" s="15"/>
       <c r="S56" s="15"/>
       <c r="T56" s="15"/>
@@ -8888,8 +8793,8 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
     </row>
-    <row r="57" spans="1:26" ht="15">
-      <c r="A57" s="15"/>
+    <row r="57" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -8901,11 +8806,11 @@
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
       <c r="R57" s="15"/>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
@@ -8916,8 +8821,8 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
     </row>
-    <row r="58" spans="1:26" ht="15">
-      <c r="A58" s="10"/>
+    <row r="58" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -8929,7 +8834,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
+      <c r="M58" s="15"/>
       <c r="N58" s="15"/>
       <c r="O58" s="15"/>
       <c r="P58" s="15"/>
@@ -8944,7 +8849,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
     </row>
-    <row r="59" spans="1:26" ht="15">
+    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -8957,11 +8862,11 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
       <c r="R59" s="15"/>
       <c r="S59" s="15"/>
       <c r="T59" s="15"/>
@@ -8972,8 +8877,8 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
     </row>
-    <row r="60" spans="1:26" ht="15">
-      <c r="A60" s="15"/>
+    <row r="60" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -8985,11 +8890,11 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
       <c r="R60" s="15"/>
       <c r="S60" s="15"/>
       <c r="T60" s="15"/>
@@ -9000,8 +8905,8 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
     </row>
-    <row r="61" spans="1:26" ht="15">
-      <c r="A61" s="10"/>
+    <row r="61" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -9013,7 +8918,7 @@
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
+      <c r="M61" s="15"/>
       <c r="N61" s="15"/>
       <c r="O61" s="15"/>
       <c r="P61" s="15"/>
@@ -9028,7 +8933,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
     </row>
-    <row r="62" spans="1:26" ht="15">
+    <row r="62" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -9041,11 +8946,11 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="41"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
       <c r="R62" s="15"/>
       <c r="S62" s="15"/>
       <c r="T62" s="15"/>
@@ -9056,8 +8961,8 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
     </row>
-    <row r="63" spans="1:26" ht="15">
-      <c r="A63" s="15"/>
+    <row r="63" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -9069,11 +8974,11 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="41"/>
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
       <c r="T63" s="15"/>
@@ -9084,8 +8989,8 @@
       <c r="Y63" s="15"/>
       <c r="Z63" s="15"/>
     </row>
-    <row r="64" spans="1:26" ht="15">
-      <c r="A64" s="10"/>
+    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="15"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -9097,7 +9002,7 @@
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
+      <c r="M64" s="15"/>
       <c r="N64" s="15"/>
       <c r="O64" s="15"/>
       <c r="P64" s="15"/>
@@ -9112,7 +9017,7 @@
       <c r="Y64" s="15"/>
       <c r="Z64" s="15"/>
     </row>
-    <row r="65" spans="1:26" ht="15">
+    <row r="65" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -9125,11 +9030,11 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
       <c r="R65" s="15"/>
       <c r="S65" s="15"/>
       <c r="T65" s="15"/>
@@ -9140,8 +9045,8 @@
       <c r="Y65" s="15"/>
       <c r="Z65" s="15"/>
     </row>
-    <row r="66" spans="1:26" ht="15">
-      <c r="A66" s="15"/>
+    <row r="66" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -9153,11 +9058,11 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
       <c r="R66" s="15"/>
       <c r="S66" s="15"/>
       <c r="T66" s="15"/>
@@ -9168,8 +9073,8 @@
       <c r="Y66" s="15"/>
       <c r="Z66" s="15"/>
     </row>
-    <row r="67" spans="1:26" ht="15">
-      <c r="A67" s="10"/>
+    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="15"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -9181,7 +9086,7 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
+      <c r="M67" s="15"/>
       <c r="N67" s="15"/>
       <c r="O67" s="15"/>
       <c r="P67" s="15"/>
@@ -9196,7 +9101,7 @@
       <c r="Y67" s="15"/>
       <c r="Z67" s="15"/>
     </row>
-    <row r="68" spans="1:26" ht="15">
+    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -9209,11 +9114,11 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
-      <c r="Q68" s="41"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
       <c r="R68" s="15"/>
       <c r="S68" s="15"/>
       <c r="T68" s="15"/>
@@ -9224,24 +9129,24 @@
       <c r="Y68" s="15"/>
       <c r="Z68" s="15"/>
     </row>
-    <row r="69" spans="1:26">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
+    <row r="69" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
       <c r="R69" s="15"/>
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
@@ -9252,7 +9157,7 @@
       <c r="Y69" s="15"/>
       <c r="Z69" s="15"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -9280,7 +9185,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -9308,7 +9213,7 @@
       <c r="Y71" s="15"/>
       <c r="Z71" s="15"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -9323,8 +9228,8 @@
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
       <c r="N72" s="15"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
       <c r="R72" s="15"/>
       <c r="S72" s="15"/>
@@ -9336,7 +9241,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -9351,8 +9256,8 @@
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
       <c r="Q73" s="15"/>
       <c r="R73" s="15"/>
       <c r="S73" s="15"/>
@@ -9364,7 +9269,7 @@
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -9392,7 +9297,7 @@
       <c r="Y74" s="15"/>
       <c r="Z74" s="15"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -9420,7 +9325,7 @@
       <c r="Y75" s="15"/>
       <c r="Z75" s="15"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9448,7 +9353,7 @@
       <c r="Y76" s="15"/>
       <c r="Z76" s="15"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9476,7 +9381,7 @@
       <c r="Y77" s="15"/>
       <c r="Z77" s="15"/>
     </row>
-    <row r="78" spans="1:26" ht="15">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9490,9 +9395,9 @@
       <c r="K78" s="15"/>
       <c r="L78" s="15"/>
       <c r="M78" s="15"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
       <c r="R78" s="15"/>
       <c r="S78" s="15"/>
@@ -9504,7 +9409,7 @@
       <c r="Y78" s="15"/>
       <c r="Z78" s="15"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9518,9 +9423,9 @@
       <c r="K79" s="15"/>
       <c r="L79" s="15"/>
       <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="41"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
@@ -9532,7 +9437,7 @@
       <c r="Y79" s="15"/>
       <c r="Z79" s="15"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9560,7 +9465,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="15"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -9588,7 +9493,7 @@
       <c r="Y81" s="15"/>
       <c r="Z81" s="15"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -9616,7 +9521,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -9644,7 +9549,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -9672,8 +9577,8 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="15"/>
     </row>
-    <row r="85" spans="1:26" ht="15">
-      <c r="A85" s="10"/>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
@@ -9687,8 +9592,8 @@
       <c r="L85" s="15"/>
       <c r="M85" s="15"/>
       <c r="N85" s="15"/>
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
       <c r="R85" s="15"/>
       <c r="S85" s="15"/>
@@ -9700,8 +9605,8 @@
       <c r="Y85" s="15"/>
       <c r="Z85" s="15"/>
     </row>
-    <row r="86" spans="1:26">
-      <c r="A86" s="15"/>
+    <row r="86" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="10"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
@@ -9715,8 +9620,8 @@
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
       <c r="Q86" s="15"/>
       <c r="R86" s="15"/>
       <c r="S86" s="15"/>
@@ -9728,7 +9633,7 @@
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -9743,8 +9648,8 @@
       <c r="L87" s="15"/>
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
       <c r="Q87" s="15"/>
       <c r="R87" s="15"/>
       <c r="S87" s="15"/>
@@ -9756,7 +9661,7 @@
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -9784,7 +9689,7 @@
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -9799,8 +9704,8 @@
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
+      <c r="O89" s="41"/>
+      <c r="P89" s="41"/>
       <c r="Q89" s="15"/>
       <c r="R89" s="15"/>
       <c r="S89" s="15"/>
@@ -9812,7 +9717,7 @@
       <c r="Y89" s="15"/>
       <c r="Z89" s="15"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -9827,8 +9732,8 @@
       <c r="L90" s="15"/>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
       <c r="R90" s="15"/>
       <c r="S90" s="15"/>
@@ -9840,7 +9745,7 @@
       <c r="Y90" s="15"/>
       <c r="Z90" s="15"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -9855,8 +9760,8 @@
       <c r="L91" s="15"/>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
+      <c r="O91" s="41"/>
+      <c r="P91" s="41"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="15"/>
       <c r="S91" s="15"/>
@@ -9868,7 +9773,7 @@
       <c r="Y91" s="15"/>
       <c r="Z91" s="15"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -9883,8 +9788,8 @@
       <c r="L92" s="15"/>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
       <c r="R92" s="15"/>
       <c r="S92" s="15"/>
@@ -9896,7 +9801,7 @@
       <c r="Y92" s="15"/>
       <c r="Z92" s="15"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -9911,8 +9816,8 @@
       <c r="L93" s="15"/>
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
-      <c r="O93" s="15"/>
-      <c r="P93" s="15"/>
+      <c r="O93" s="41"/>
+      <c r="P93" s="41"/>
       <c r="Q93" s="15"/>
       <c r="R93" s="15"/>
       <c r="S93" s="15"/>
@@ -9924,7 +9829,7 @@
       <c r="Y93" s="15"/>
       <c r="Z93" s="15"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -9939,8 +9844,8 @@
       <c r="L94" s="15"/>
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
-      <c r="O94" s="41"/>
-      <c r="P94" s="41"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="15"/>
       <c r="Q94" s="15"/>
       <c r="R94" s="15"/>
       <c r="S94" s="15"/>
@@ -9952,7 +9857,7 @@
       <c r="Y94" s="15"/>
       <c r="Z94" s="15"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -9967,8 +9872,8 @@
       <c r="L95" s="15"/>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
-      <c r="O95" s="15"/>
-      <c r="P95" s="15"/>
+      <c r="O95" s="41"/>
+      <c r="P95" s="41"/>
       <c r="Q95" s="15"/>
       <c r="R95" s="15"/>
       <c r="S95" s="15"/>
@@ -9980,7 +9885,7 @@
       <c r="Y95" s="15"/>
       <c r="Z95" s="15"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -9995,8 +9900,8 @@
       <c r="L96" s="15"/>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
       <c r="Q96" s="15"/>
       <c r="R96" s="15"/>
       <c r="S96" s="15"/>
@@ -10008,7 +9913,7 @@
       <c r="Y96" s="15"/>
       <c r="Z96" s="15"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -10023,8 +9928,8 @@
       <c r="L97" s="15"/>
       <c r="M97" s="15"/>
       <c r="N97" s="15"/>
-      <c r="O97" s="15"/>
-      <c r="P97" s="15"/>
+      <c r="O97" s="41"/>
+      <c r="P97" s="41"/>
       <c r="Q97" s="15"/>
       <c r="R97" s="15"/>
       <c r="S97" s="15"/>
@@ -10035,6 +9940,34 @@
       <c r="X97" s="15"/>
       <c r="Y97" s="15"/>
       <c r="Z97" s="15"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="15"/>
+      <c r="S98" s="15"/>
+      <c r="T98" s="15"/>
+      <c r="U98" s="15"/>
+      <c r="V98" s="15"/>
+      <c r="W98" s="15"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="Z98" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>
@@ -10055,30 +9988,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="1"/>
+    <col min="13" max="13" width="7.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" ht="18">
+    <row r="1" spans="1:13" s="23" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -10095,15 +10028,15 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>461</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>462</v>
@@ -10115,41 +10048,41 @@
         <v>11</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M2" s="35"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>463</v>
@@ -10161,24 +10094,22 @@
         <v>463</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>631</v>
-      </c>
-      <c r="M3" s="35" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="23" customFormat="1">
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>633</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>634</v>
@@ -10201,17 +10132,19 @@
       <c r="I4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="15">
+        <v>140</v>
+      </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13" s="23" customFormat="1">
+    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>636</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>637</v>
@@ -10234,26 +10167,26 @@
       <c r="I5" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="15">
+        <v>590</v>
+      </c>
+      <c r="K5" s="15">
+        <v>5</v>
+      </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" s="23" customFormat="1">
+    <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>639</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>640</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>641</v>
+        <v>760</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>470</v>
+        <v>761</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>64</v>
@@ -10265,28 +10198,24 @@
         <v>1</v>
       </c>
       <c r="I6" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="23" customFormat="1">
+    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>643</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>644</v>
+        <v>762</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>470</v>
+        <v>761</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>64</v>
@@ -10298,30 +10227,30 @@
         <v>1</v>
       </c>
       <c r="I7" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="23" customFormat="1">
+    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G8" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="15" t="b">
         <v>1</v>
@@ -10334,23 +10263,23 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="1:13" s="23" customFormat="1">
+    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="15" t="b">
         <v>1</v>
@@ -10363,23 +10292,23 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1">
+    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="15" t="b">
         <v>1</v>
@@ -10392,23 +10321,23 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1">
+    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="15" t="b">
         <v>1</v>
@@ -10421,14 +10350,14 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" s="23" customFormat="1">
+    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>470</v>
@@ -10450,14 +10379,14 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="23" customFormat="1">
+    <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>470</v>
@@ -10479,14 +10408,14 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" s="23" customFormat="1">
+    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>470</v>
@@ -10508,14 +10437,14 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" s="23" customFormat="1">
+    <row r="15" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>470</v>
@@ -10537,14 +10466,14 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1">
+    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>470</v>
@@ -10566,14 +10495,14 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1">
+    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>470</v>
@@ -10595,14 +10524,14 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1">
+    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>470</v>
@@ -10624,14 +10553,14 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1">
+    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>470</v>
@@ -10653,14 +10582,14 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1">
+    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>470</v>
@@ -10682,14 +10611,14 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" s="22" customFormat="1">
+    <row r="21" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>470</v>
@@ -10711,14 +10640,14 @@
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" s="22" customFormat="1">
+    <row r="22" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>470</v>
@@ -10740,14 +10669,14 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1">
+    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>470</v>
@@ -10769,14 +10698,14 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1">
+    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>470</v>
@@ -10798,14 +10727,14 @@
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" s="23" customFormat="1">
+    <row r="25" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>470</v>
@@ -10827,23 +10756,23 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" s="23" customFormat="1">
+    <row r="26" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G26" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="15" t="b">
         <v>1</v>
@@ -10856,7 +10785,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10871,7 +10800,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10886,7 +10815,7 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -10901,7 +10830,7 @@
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -10916,202 +10845,202 @@
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" s="22"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="22"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="22"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="22"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="22"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="22"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="22"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="22"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="22"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="22"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="22"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="22"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="22"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="22"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="22"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="22"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="22"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="22"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="22"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="22"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="22"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="22"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="22"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="22"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="22"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="22"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="22"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="22"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="22"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="22"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="22"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="22"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="22"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="22"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="22"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="22"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="22"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="22"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="22"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="22"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="22"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="22"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="22"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="22"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="22"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="22"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="22"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="22"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="22"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="22"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="22"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="22"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="22"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="22"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="22"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="22"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="22"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="22"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="22"/>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="22"/>
     </row>
   </sheetData>
@@ -11133,19 +11062,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -11164,7 +11093,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -11185,7 +11114,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -11208,7 +11137,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -11231,7 +11160,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -11254,7 +11183,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -11277,7 +11206,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -11300,7 +11229,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -11323,7 +11252,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -11346,7 +11275,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -11369,7 +11298,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -11388,7 +11317,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11409,7 +11338,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11432,7 +11361,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11455,7 +11384,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11478,7 +11407,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11501,7 +11430,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11524,7 +11453,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11547,7 +11476,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11570,7 +11499,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11593,7 +11522,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11612,7 +11541,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11635,7 +11564,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11658,7 +11587,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11681,7 +11610,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11704,7 +11633,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11727,7 +11656,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11750,7 +11679,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11773,7 +11702,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -11796,7 +11725,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -11819,7 +11748,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -11838,7 +11767,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -11859,7 +11788,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -11882,7 +11811,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -11905,7 +11834,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -11928,7 +11857,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -11951,7 +11880,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -11974,7 +11903,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -11997,7 +11926,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -12020,7 +11949,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -12043,7 +11972,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -12062,7 +11991,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -12083,7 +12012,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -12106,7 +12035,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -12129,7 +12058,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -12152,7 +12081,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -12175,7 +12104,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -12198,7 +12127,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -12221,7 +12150,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -12244,7 +12173,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -12267,7 +12196,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -12286,7 +12215,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -12307,7 +12236,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -12330,7 +12259,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -12353,7 +12282,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -12376,7 +12305,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12399,7 +12328,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12422,7 +12351,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12445,7 +12374,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12468,7 +12397,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12491,7 +12420,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12510,7 +12439,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12531,7 +12460,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12556,7 +12485,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12579,7 +12508,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12602,7 +12531,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12625,7 +12554,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12648,7 +12577,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12671,7 +12600,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12694,7 +12623,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12717,7 +12646,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12740,7 +12669,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12759,7 +12688,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12780,7 +12709,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -12803,7 +12732,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -12828,7 +12757,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -12851,7 +12780,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -12874,7 +12803,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -12897,7 +12826,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -12920,7 +12849,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -12943,7 +12872,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -12966,7 +12895,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -12989,7 +12918,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -13012,7 +12941,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -13035,7 +12964,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -13058,7 +12987,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -13077,7 +13006,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -13100,7 +13029,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -13123,7 +13052,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -13146,7 +13075,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -13169,7 +13098,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -13192,7 +13121,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -13215,7 +13144,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -13238,7 +13167,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -13261,7 +13190,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -13284,7 +13213,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -13307,7 +13236,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -13326,7 +13255,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -13351,7 +13280,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -13370,7 +13299,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -13391,7 +13320,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13416,7 +13345,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13435,7 +13364,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13458,7 +13387,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13483,7 +13412,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13506,7 +13435,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13527,7 +13456,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13546,7 +13475,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13571,7 +13500,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13594,7 +13523,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13617,7 +13546,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13640,7 +13569,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13663,7 +13592,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13686,7 +13615,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13709,7 +13638,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13728,7 +13657,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13751,7 +13680,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13774,7 +13703,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -13797,7 +13726,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -13816,7 +13745,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -13839,7 +13768,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -13862,7 +13791,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -13885,7 +13814,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -13908,7 +13837,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -13931,7 +13860,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -13954,7 +13883,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -13973,7 +13902,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -13998,7 +13927,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -14021,7 +13950,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -14044,7 +13973,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -14067,7 +13996,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -14090,7 +14019,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -14113,7 +14042,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -14136,7 +14065,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -14159,7 +14088,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -14182,7 +14111,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -14201,7 +14130,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -14226,7 +14155,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -14247,7 +14176,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -14270,7 +14199,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -14293,7 +14222,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -14316,7 +14245,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -14339,7 +14268,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -14362,7 +14291,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -14385,7 +14314,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14408,7 +14337,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14431,7 +14360,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14454,7 +14383,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14477,7 +14406,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14500,7 +14429,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14523,7 +14452,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14542,7 +14471,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14565,7 +14494,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14584,7 +14513,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14607,7 +14536,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14630,7 +14559,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14649,7 +14578,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14674,7 +14603,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14697,7 +14626,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14720,7 +14649,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14743,7 +14672,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14766,7 +14695,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14789,7 +14718,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -14812,7 +14741,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -14835,7 +14764,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -14858,7 +14787,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -14881,7 +14810,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -14900,7 +14829,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -14925,7 +14854,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -14948,7 +14877,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -14971,7 +14900,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -14994,7 +14923,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -15017,7 +14946,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -15040,7 +14969,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -15063,7 +14992,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -15086,7 +15015,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -15109,7 +15038,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -15132,7 +15061,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -15151,7 +15080,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -15174,7 +15103,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -15197,7 +15126,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -15220,7 +15149,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -15243,7 +15172,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -15262,7 +15191,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -15285,7 +15214,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -15308,7 +15237,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -15331,7 +15260,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -15354,7 +15283,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -15373,7 +15302,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15394,7 +15323,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15417,7 +15346,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15436,7 +15365,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15459,7 +15388,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15484,7 +15413,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15505,7 +15434,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15530,7 +15459,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15555,7 +15484,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15574,7 +15503,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15599,7 +15528,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15622,7 +15551,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15645,7 +15574,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15668,7 +15597,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15691,7 +15620,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15714,7 +15643,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15737,7 +15666,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15760,7 +15689,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15783,7 +15712,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -15802,7 +15731,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -15827,7 +15756,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -15850,7 +15779,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -15873,7 +15802,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -15896,7 +15825,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -15919,7 +15848,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -15942,7 +15871,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -15965,7 +15894,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -15988,7 +15917,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -16011,7 +15940,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -16030,7 +15959,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -16051,7 +15980,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -16074,7 +16003,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -16097,7 +16026,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -16120,7 +16049,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -16143,7 +16072,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -16166,7 +16095,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -16189,7 +16118,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -16212,7 +16141,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -16235,7 +16164,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -16258,7 +16187,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -16281,7 +16210,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -16304,7 +16233,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -16327,7 +16256,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -16350,7 +16279,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -16373,7 +16302,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16396,7 +16325,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16415,7 +16344,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16436,7 +16365,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16459,7 +16388,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16482,7 +16411,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16505,7 +16434,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16528,7 +16457,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16551,7 +16480,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16574,7 +16503,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16597,7 +16526,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16620,7 +16549,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16643,7 +16572,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16666,7 +16595,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16689,7 +16618,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16712,7 +16641,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16735,7 +16664,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16758,7 +16687,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16781,7 +16710,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -16800,7 +16729,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -16825,7 +16754,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -16848,7 +16777,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -16871,7 +16800,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -16894,7 +16823,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -16917,7 +16846,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -16936,7 +16865,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -16961,7 +16890,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -16984,7 +16913,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -17003,7 +16932,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -17022,7 +16951,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -17041,7 +16970,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -17062,7 +16991,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -17085,7 +17014,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -17108,7 +17037,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -17131,7 +17060,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -17154,7 +17083,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -17177,7 +17106,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -17200,7 +17129,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -17223,7 +17152,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -17246,7 +17175,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -17269,7 +17198,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -17292,7 +17221,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -17311,7 +17240,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -17334,7 +17263,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -17353,7 +17282,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -17378,7 +17307,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17401,7 +17330,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17424,7 +17353,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17447,7 +17376,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17470,7 +17399,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17493,7 +17422,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17516,7 +17445,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17539,7 +17468,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17562,7 +17491,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17585,7 +17514,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17608,7 +17537,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17627,7 +17556,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17650,7 +17579,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17669,7 +17598,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17690,7 +17619,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17709,7 +17638,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17730,7 +17659,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17749,7 +17678,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17770,7 +17699,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17789,7 +17718,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -17812,7 +17741,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -17831,7 +17760,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -17856,7 +17785,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -17879,7 +17808,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -17902,7 +17831,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -17925,7 +17854,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -17948,7 +17877,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -17971,7 +17900,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -17994,7 +17923,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -18017,7 +17946,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -18040,7 +17969,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -18059,7 +17988,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -18082,7 +18011,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -18105,7 +18034,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -18128,7 +18057,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -18151,7 +18080,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -18170,7 +18099,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -18193,7 +18122,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -18216,7 +18145,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -18241,7 +18170,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -18260,7 +18189,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -18285,7 +18214,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -18308,7 +18237,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -18327,7 +18256,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -18348,7 +18277,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -18369,7 +18298,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -18392,7 +18321,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18411,7 +18340,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18430,7 +18359,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18455,7 +18384,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18480,7 +18409,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18494,7 +18423,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18517,7 +18446,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18537,7 +18466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18557,7 +18486,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18577,7 +18506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18594,7 +18523,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18617,7 +18546,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18640,7 +18569,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18654,7 +18583,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18677,7 +18606,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18700,7 +18629,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18720,7 +18649,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18740,7 +18669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18757,7 +18686,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18783,7 +18712,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18812,7 +18741,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18851,7 +18780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18865,7 +18794,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18885,7 +18814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18899,7 +18828,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18919,7 +18848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18939,7 +18868,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18959,7 +18888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18979,7 +18908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18999,7 +18928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19019,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19039,7 +18968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19059,7 +18988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19079,7 +19008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19093,7 +19022,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19113,7 +19042,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19133,7 +19062,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19149,7 +19078,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19175,7 +19104,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19216,7 +19145,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19230,7 +19159,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19250,7 +19179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19264,7 +19193,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19297,23 +19226,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E12"/>
+    <sheetView topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19324,31 +19253,31 @@
         <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1">
-      <c r="A2" s="29" t="s">
-        <v>648</v>
+    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>642</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="22" customFormat="1">
-      <c r="A3" s="29" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>593</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -19358,14 +19287,14 @@
         <v>594</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="22" customFormat="1">
-      <c r="A4" s="29" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>595</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -19375,14 +19304,14 @@
         <v>596</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="22" customFormat="1">
-      <c r="A5" s="29" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>597</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -19392,14 +19321,14 @@
         <v>598</v>
       </c>
       <c r="D5" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="22" customFormat="1">
-      <c r="A6" s="29" t="s">
+    </row>
+    <row r="6" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>599</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -19409,14 +19338,14 @@
         <v>600</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="22" customFormat="1">
-      <c r="A7" s="29" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>601</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -19426,14 +19355,14 @@
         <v>602</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="22" customFormat="1">
-      <c r="A8" s="29" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>440</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -19443,14 +19372,14 @@
         <v>603</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="22" customFormat="1">
-      <c r="A9" s="29" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>604</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -19460,66 +19389,66 @@
         <v>605</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="29" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
         <v>606</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>607</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1">
-      <c r="A11" s="29" t="s">
-        <v>733</v>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>717</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="22" customFormat="1">
-      <c r="A12" s="29" t="s">
-        <v>732</v>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>720</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>447</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="22" customFormat="1"/>
-    <row r="14" spans="1:7" s="22" customFormat="1"/>
-    <row r="15" spans="1:7">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>573</v>
       </c>
@@ -19533,7 +19462,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>456</v>
       </c>
@@ -19547,7 +19476,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>454</v>
       </c>
@@ -19558,8 +19487,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="22" customFormat="1"/>
-    <row r="20" spans="1:21">
+    <row r="18" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>551</v>
       </c>
@@ -19584,8 +19513,14 @@
       <c r="U20" s="22" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="X20" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>552</v>
       </c>
@@ -19625,8 +19560,17 @@
       <c r="Q21" s="22" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="AA21" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="AB21" s="22">
+        <v>30</v>
+      </c>
+      <c r="AC21" s="22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -19667,7 +19611,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>545</v>
       </c>
@@ -19699,7 +19643,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>554</v>
       </c>
@@ -19731,7 +19675,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>553</v>
       </c>
@@ -19760,7 +19704,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>555</v>
       </c>
@@ -19792,10 +19736,19 @@
         <v>589</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>556</v>
       </c>
+      <c r="I27" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="J27" s="23">
+        <v>0</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>742</v>
+      </c>
       <c r="L27" s="1" t="s">
         <v>546</v>
       </c>
@@ -19812,7 +19765,10 @@
         <v>543</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>738</v>
+      </c>
       <c r="L28" s="1" t="s">
         <v>561</v>
       </c>
@@ -19832,7 +19788,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>739</v>
+      </c>
       <c r="L29" s="1" t="s">
         <v>562</v>
       </c>
@@ -19842,8 +19801,17 @@
       <c r="N29" s="22" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="O29" t="s">
+        <v>741</v>
+      </c>
+      <c r="P29" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="23" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="L30" s="1" t="s">
         <v>542</v>
       </c>
@@ -19851,7 +19819,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="L31" s="1" t="s">
         <v>544</v>
       </c>
@@ -19862,9 +19830,20 @@
         <v>577</v>
       </c>
     </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="L32" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="M32" s="23">
+        <v>0</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
